--- a/mathSheet/math_placement_2016.xlsx
+++ b/mathSheet/math_placement_2016.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26929"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-150" yWindow="615" windowWidth="19395" windowHeight="5595" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="数的思考" sheetId="1" r:id="rId1"/>
     <sheet name="理系1" sheetId="2" r:id="rId2"/>
     <sheet name="理系2" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="192">
   <si>
     <t>得点</t>
   </si>
@@ -25,9 +30,6 @@
   </si>
   <si>
     <t>-</t>
-  </si>
-  <si>
-    <t>a</t>
   </si>
   <si>
     <t>配点</t>
@@ -805,16 +807,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1210,201 +1212,197 @@
       <selection activeCell="AT4" sqref="AT4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.1640625" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="3" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="3.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="2.625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="3.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="3.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.6640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="3.1640625" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="3" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="3.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="3.1640625" style="3" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="3" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="3.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="3.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="3.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="3.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="3.1640625" style="3" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="3" style="3" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="2.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="18" max="20" width="3.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="2.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="2.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="20" width="3.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="2.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="3.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="3.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="3.1640625" style="3" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="3" style="3" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="3.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="3.1640625" style="3" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="3.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="3.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="3.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="3.5" style="3" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="3" style="3" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="3.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="3.1640625" style="3" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="3.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="3.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="33" max="34" width="3.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="32" max="34" width="3.1640625" style="3" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="3.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="2.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="2.83203125" style="3" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="3.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="38" max="39" width="3.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="38" max="39" width="3.1640625" style="3" bestFit="1" customWidth="1"/>
     <col min="40" max="41" width="3.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="3.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="3.1640625" style="3" bestFit="1" customWidth="1"/>
     <col min="43" max="43" width="3.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="3.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="2.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="3.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="2.83203125" style="3" bestFit="1" customWidth="1"/>
     <col min="46" max="48" width="2.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="49" max="50" width="5.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="49" max="50" width="5.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="51" max="52" width="2.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="53" max="54" width="5.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="53" max="54" width="5.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="55" max="56" width="2.5" style="2" bestFit="1" customWidth="1"/>
     <col min="57" max="62" width="3.5" style="2" bestFit="1" customWidth="1"/>
     <col min="63" max="64" width="6" style="2" bestFit="1" customWidth="1"/>
-    <col min="65" max="71" width="8.875" bestFit="1" customWidth="1"/>
-    <col min="72" max="80" width="7.875" bestFit="1" customWidth="1"/>
-    <col min="81" max="101" width="8.875" bestFit="1" customWidth="1"/>
-    <col min="102" max="110" width="7.875" bestFit="1" customWidth="1"/>
-    <col min="111" max="131" width="8.875" bestFit="1" customWidth="1"/>
-    <col min="132" max="140" width="7.875" bestFit="1" customWidth="1"/>
-    <col min="141" max="161" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="65" max="71" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="72" max="80" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="81" max="101" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="102" max="110" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="111" max="131" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="132" max="140" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="141" max="161" width="8.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:64">
       <c r="A1" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="O1" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="P1" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="Q1" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="R1" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="S1" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="T1" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="T1" s="6" t="s">
+      <c r="U1" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="V1" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="W1" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="X1" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y1" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z1" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA1" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB1" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC1" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="AD1" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="AE1" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF1" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AG1" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="AH1" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI1" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="AJ1" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK1" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL1" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="AM1" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AN1" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="AO1" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="AP1" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="AQ1" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="U1" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="V1" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="W1" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="X1" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y1" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z1" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA1" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB1" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC1" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="AD1" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="AE1" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="AF1" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="AG1" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="AH1" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="AI1" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="AJ1" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="AK1" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="AL1" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="AM1" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="AN1" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="AO1" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="AP1" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="AQ1" s="6" t="s">
+      <c r="AR1" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="AR1" s="6" t="s">
+      <c r="AS1" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="AS1" s="6" t="s">
-        <v>82</v>
-      </c>
       <c r="AT1" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AU1" s="6"/>
       <c r="AV1" s="6"/>
@@ -1425,7 +1423,7 @@
       <c r="BK1" s="6"/>
       <c r="BL1" s="6"/>
     </row>
-    <row r="2" spans="1:64" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:64">
       <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
@@ -1562,7 +1560,7 @@
         <v>5</v>
       </c>
       <c r="AT2" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AU2" s="9"/>
       <c r="AV2" s="6"/>
@@ -1583,9 +1581,9 @@
       <c r="BK2" s="6"/>
       <c r="BL2" s="6"/>
     </row>
-    <row r="3" spans="1:64" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:64">
       <c r="A3" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B3" s="6">
         <v>1</v>
@@ -1599,13 +1597,13 @@
       </c>
       <c r="F3" s="6"/>
       <c r="G3" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
       <c r="K3" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L3" s="6"/>
       <c r="M3" s="6"/>
@@ -1619,10 +1617,10 @@
       <c r="Q3" s="6"/>
       <c r="R3" s="6"/>
       <c r="S3" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="T3" s="6" t="s">
         <v>89</v>
-      </c>
-      <c r="T3" s="6" t="s">
-        <v>90</v>
       </c>
       <c r="U3" s="6">
         <v>8</v>
@@ -1679,10 +1677,10 @@
         <v>3</v>
       </c>
       <c r="AW3" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AX3" s="8" t="s">
         <v>91</v>
-      </c>
-      <c r="AX3" s="8" t="s">
-        <v>92</v>
       </c>
       <c r="AY3" s="8">
         <v>5</v>
@@ -1691,10 +1689,10 @@
         <v>6</v>
       </c>
       <c r="BA3" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="BB3" s="8" t="s">
         <v>93</v>
-      </c>
-      <c r="BB3" s="8" t="s">
-        <v>94</v>
       </c>
       <c r="BC3" s="8">
         <v>8</v>
@@ -1727,9 +1725,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:64" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:64">
       <c r="A4" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B4" s="6">
         <v>5</v>
@@ -1940,7 +1938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:64" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:64">
       <c r="A5" s="1"/>
       <c r="AT5" s="2">
         <f t="shared" ref="AT5:AT10" si="0">IF(AND(B5=B$2),1,0)</f>
@@ -2019,7 +2017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:64" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:64">
       <c r="AT6" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2097,7 +2095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:64" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:64">
       <c r="AT7" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2175,7 +2173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:64" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:64">
       <c r="AT8" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2253,7 +2251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:64" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:64">
       <c r="AT9" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2331,7 +2329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:64" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:64">
       <c r="AT10" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2409,7 +2407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:64" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:64">
       <c r="AT11" s="3"/>
       <c r="AU11" s="3"/>
       <c r="AV11" s="3"/>
@@ -2430,7 +2428,7 @@
       <c r="BK11" s="3"/>
       <c r="BL11" s="3"/>
     </row>
-    <row r="12" spans="1:64" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:64">
       <c r="AT12" s="3"/>
       <c r="AU12" s="3"/>
       <c r="AV12" s="3"/>
@@ -2451,7 +2449,7 @@
       <c r="BK12" s="3"/>
       <c r="BL12" s="3"/>
     </row>
-    <row r="13" spans="1:64" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:64">
       <c r="AT13" s="3"/>
       <c r="AU13" s="3"/>
       <c r="AV13" s="3"/>
@@ -2472,7 +2470,7 @@
       <c r="BK13" s="3"/>
       <c r="BL13" s="3"/>
     </row>
-    <row r="14" spans="1:64" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:64">
       <c r="AT14" s="3"/>
       <c r="AU14" s="3"/>
       <c r="AV14" s="3"/>
@@ -2493,7 +2491,7 @@
       <c r="BK14" s="3"/>
       <c r="BL14" s="3"/>
     </row>
-    <row r="15" spans="1:64" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:64">
       <c r="AT15" s="3"/>
       <c r="AU15" s="3"/>
       <c r="AV15" s="3"/>
@@ -2514,7 +2512,7 @@
       <c r="BK15" s="3"/>
       <c r="BL15" s="3"/>
     </row>
-    <row r="16" spans="1:64" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:64">
       <c r="AT16" s="3"/>
       <c r="AU16" s="3"/>
       <c r="AV16" s="3"/>
@@ -2535,7 +2533,7 @@
       <c r="BK16" s="3"/>
       <c r="BL16" s="3"/>
     </row>
-    <row r="17" spans="46:64" x14ac:dyDescent="0.15">
+    <row r="17" spans="46:64">
       <c r="AT17" s="3"/>
       <c r="AU17" s="3"/>
       <c r="AV17" s="3"/>
@@ -2556,7 +2554,7 @@
       <c r="BK17" s="3"/>
       <c r="BL17" s="3"/>
     </row>
-    <row r="18" spans="46:64" x14ac:dyDescent="0.15">
+    <row r="18" spans="46:64">
       <c r="AT18" s="3"/>
       <c r="AU18" s="3"/>
       <c r="AV18" s="3"/>
@@ -2577,7 +2575,7 @@
       <c r="BK18" s="3"/>
       <c r="BL18" s="3"/>
     </row>
-    <row r="19" spans="46:64" x14ac:dyDescent="0.15">
+    <row r="19" spans="46:64">
       <c r="AT19" s="3"/>
       <c r="AU19" s="3"/>
       <c r="AV19" s="3"/>
@@ -2598,7 +2596,7 @@
       <c r="BK19" s="3"/>
       <c r="BL19" s="3"/>
     </row>
-    <row r="20" spans="46:64" x14ac:dyDescent="0.15">
+    <row r="20" spans="46:64">
       <c r="AT20" s="3"/>
       <c r="AU20" s="3"/>
       <c r="AV20" s="3"/>
@@ -2619,7 +2617,7 @@
       <c r="BK20" s="3"/>
       <c r="BL20" s="3"/>
     </row>
-    <row r="21" spans="46:64" x14ac:dyDescent="0.15">
+    <row r="21" spans="46:64">
       <c r="AT21" s="3"/>
       <c r="AU21" s="3"/>
       <c r="AV21" s="3"/>
@@ -2640,7 +2638,7 @@
       <c r="BK21" s="3"/>
       <c r="BL21" s="3"/>
     </row>
-    <row r="22" spans="46:64" x14ac:dyDescent="0.15">
+    <row r="22" spans="46:64">
       <c r="AT22" s="3"/>
       <c r="AU22" s="3"/>
       <c r="AV22" s="3"/>
@@ -2661,7 +2659,7 @@
       <c r="BK22" s="3"/>
       <c r="BL22" s="3"/>
     </row>
-    <row r="23" spans="46:64" x14ac:dyDescent="0.15">
+    <row r="23" spans="46:64">
       <c r="AT23" s="3"/>
       <c r="AU23" s="3"/>
       <c r="AV23" s="3"/>
@@ -2682,7 +2680,7 @@
       <c r="BK23" s="3"/>
       <c r="BL23" s="3"/>
     </row>
-    <row r="24" spans="46:64" x14ac:dyDescent="0.15">
+    <row r="24" spans="46:64">
       <c r="AT24" s="3"/>
       <c r="AU24" s="3"/>
       <c r="AV24" s="3"/>
@@ -2703,7 +2701,7 @@
       <c r="BK24" s="3"/>
       <c r="BL24" s="3"/>
     </row>
-    <row r="25" spans="46:64" x14ac:dyDescent="0.15">
+    <row r="25" spans="46:64">
       <c r="AT25" s="3"/>
       <c r="AU25" s="3"/>
       <c r="AV25" s="3"/>
@@ -2724,7 +2722,7 @@
       <c r="BK25" s="3"/>
       <c r="BL25" s="3"/>
     </row>
-    <row r="26" spans="46:64" x14ac:dyDescent="0.15">
+    <row r="26" spans="46:64">
       <c r="AT26" s="3"/>
       <c r="AU26" s="3"/>
       <c r="AV26" s="3"/>
@@ -2745,7 +2743,7 @@
       <c r="BK26" s="3"/>
       <c r="BL26" s="3"/>
     </row>
-    <row r="27" spans="46:64" x14ac:dyDescent="0.15">
+    <row r="27" spans="46:64">
       <c r="AT27" s="3"/>
       <c r="AU27" s="3"/>
       <c r="AV27" s="3"/>
@@ -2766,7 +2764,7 @@
       <c r="BK27" s="3"/>
       <c r="BL27" s="3"/>
     </row>
-    <row r="28" spans="46:64" x14ac:dyDescent="0.15">
+    <row r="28" spans="46:64">
       <c r="AT28" s="3"/>
       <c r="AU28" s="3"/>
       <c r="AV28" s="3"/>
@@ -2787,7 +2785,7 @@
       <c r="BK28" s="3"/>
       <c r="BL28" s="3"/>
     </row>
-    <row r="29" spans="46:64" x14ac:dyDescent="0.15">
+    <row r="29" spans="46:64">
       <c r="AT29" s="3"/>
       <c r="AU29" s="3"/>
       <c r="AV29" s="3"/>
@@ -2808,7 +2806,7 @@
       <c r="BK29" s="3"/>
       <c r="BL29" s="3"/>
     </row>
-    <row r="30" spans="46:64" x14ac:dyDescent="0.15">
+    <row r="30" spans="46:64">
       <c r="AT30" s="3"/>
       <c r="AU30" s="3"/>
       <c r="AV30" s="3"/>
@@ -2829,7 +2827,7 @@
       <c r="BK30" s="3"/>
       <c r="BL30" s="3"/>
     </row>
-    <row r="31" spans="46:64" x14ac:dyDescent="0.15">
+    <row r="31" spans="46:64">
       <c r="AT31" s="3"/>
       <c r="AU31" s="3"/>
       <c r="AV31" s="3"/>
@@ -2850,7 +2848,7 @@
       <c r="BK31" s="3"/>
       <c r="BL31" s="3"/>
     </row>
-    <row r="32" spans="46:64" x14ac:dyDescent="0.15">
+    <row r="32" spans="46:64">
       <c r="AT32" s="3"/>
       <c r="AU32" s="3"/>
       <c r="AV32" s="3"/>
@@ -2871,7 +2869,7 @@
       <c r="BK32" s="3"/>
       <c r="BL32" s="3"/>
     </row>
-    <row r="33" spans="46:64" x14ac:dyDescent="0.15">
+    <row r="33" spans="46:64">
       <c r="AT33" s="3"/>
       <c r="AU33" s="3"/>
       <c r="AV33" s="3"/>
@@ -2892,7 +2890,7 @@
       <c r="BK33" s="3"/>
       <c r="BL33" s="3"/>
     </row>
-    <row r="34" spans="46:64" x14ac:dyDescent="0.15">
+    <row r="34" spans="46:64">
       <c r="AT34" s="3"/>
       <c r="AU34" s="3"/>
       <c r="AV34" s="3"/>
@@ -2913,7 +2911,7 @@
       <c r="BK34" s="3"/>
       <c r="BL34" s="3"/>
     </row>
-    <row r="35" spans="46:64" x14ac:dyDescent="0.15">
+    <row r="35" spans="46:64">
       <c r="AT35" s="3"/>
       <c r="AU35" s="3"/>
       <c r="AV35" s="3"/>
@@ -2934,7 +2932,7 @@
       <c r="BK35" s="3"/>
       <c r="BL35" s="3"/>
     </row>
-    <row r="36" spans="46:64" x14ac:dyDescent="0.15">
+    <row r="36" spans="46:64">
       <c r="AT36" s="3"/>
       <c r="AU36" s="3"/>
       <c r="AV36" s="3"/>
@@ -2955,7 +2953,7 @@
       <c r="BK36" s="3"/>
       <c r="BL36" s="3"/>
     </row>
-    <row r="37" spans="46:64" x14ac:dyDescent="0.15">
+    <row r="37" spans="46:64">
       <c r="AT37" s="3"/>
       <c r="AU37" s="3"/>
       <c r="AV37" s="3"/>
@@ -2976,7 +2974,7 @@
       <c r="BK37" s="3"/>
       <c r="BL37" s="3"/>
     </row>
-    <row r="38" spans="46:64" x14ac:dyDescent="0.15">
+    <row r="38" spans="46:64">
       <c r="AT38" s="3"/>
       <c r="AU38" s="3"/>
       <c r="AV38" s="3"/>
@@ -2997,7 +2995,7 @@
       <c r="BK38" s="3"/>
       <c r="BL38" s="3"/>
     </row>
-    <row r="39" spans="46:64" x14ac:dyDescent="0.15">
+    <row r="39" spans="46:64">
       <c r="AT39" s="3"/>
       <c r="AU39" s="3"/>
       <c r="AV39" s="3"/>
@@ -3018,7 +3016,7 @@
       <c r="BK39" s="3"/>
       <c r="BL39" s="3"/>
     </row>
-    <row r="40" spans="46:64" x14ac:dyDescent="0.15">
+    <row r="40" spans="46:64">
       <c r="AT40" s="3"/>
       <c r="AU40" s="3"/>
       <c r="AV40" s="3"/>
@@ -3039,7 +3037,7 @@
       <c r="BK40" s="3"/>
       <c r="BL40" s="3"/>
     </row>
-    <row r="41" spans="46:64" x14ac:dyDescent="0.15">
+    <row r="41" spans="46:64">
       <c r="AT41" s="3"/>
       <c r="AU41" s="3"/>
       <c r="AV41" s="3"/>
@@ -3060,7 +3058,7 @@
       <c r="BK41" s="3"/>
       <c r="BL41" s="3"/>
     </row>
-    <row r="42" spans="46:64" x14ac:dyDescent="0.15">
+    <row r="42" spans="46:64">
       <c r="AT42" s="3"/>
       <c r="AU42" s="3"/>
       <c r="AV42" s="3"/>
@@ -3081,7 +3079,7 @@
       <c r="BK42" s="3"/>
       <c r="BL42" s="3"/>
     </row>
-    <row r="43" spans="46:64" x14ac:dyDescent="0.15">
+    <row r="43" spans="46:64">
       <c r="AT43" s="3"/>
       <c r="AU43" s="3"/>
       <c r="AV43" s="3"/>
@@ -3102,7 +3100,7 @@
       <c r="BK43" s="3"/>
       <c r="BL43" s="3"/>
     </row>
-    <row r="44" spans="46:64" x14ac:dyDescent="0.15">
+    <row r="44" spans="46:64">
       <c r="AT44" s="3"/>
       <c r="AU44" s="3"/>
       <c r="AV44" s="3"/>
@@ -3123,7 +3121,7 @@
       <c r="BK44" s="3"/>
       <c r="BL44" s="3"/>
     </row>
-    <row r="45" spans="46:64" x14ac:dyDescent="0.15">
+    <row r="45" spans="46:64">
       <c r="AT45" s="3"/>
       <c r="AU45" s="3"/>
       <c r="AV45" s="3"/>
@@ -3144,7 +3142,7 @@
       <c r="BK45" s="3"/>
       <c r="BL45" s="3"/>
     </row>
-    <row r="46" spans="46:64" x14ac:dyDescent="0.15">
+    <row r="46" spans="46:64">
       <c r="AT46" s="3"/>
       <c r="AU46" s="3"/>
       <c r="AV46" s="3"/>
@@ -3165,7 +3163,7 @@
       <c r="BK46" s="3"/>
       <c r="BL46" s="3"/>
     </row>
-    <row r="47" spans="46:64" x14ac:dyDescent="0.15">
+    <row r="47" spans="46:64">
       <c r="AT47" s="3"/>
       <c r="AU47" s="3"/>
       <c r="AV47" s="3"/>
@@ -3186,7 +3184,7 @@
       <c r="BK47" s="3"/>
       <c r="BL47" s="3"/>
     </row>
-    <row r="48" spans="46:64" x14ac:dyDescent="0.15">
+    <row r="48" spans="46:64">
       <c r="AT48" s="3"/>
       <c r="AU48" s="3"/>
       <c r="AV48" s="3"/>
@@ -3207,7 +3205,7 @@
       <c r="BK48" s="3"/>
       <c r="BL48" s="3"/>
     </row>
-    <row r="49" spans="46:64" x14ac:dyDescent="0.15">
+    <row r="49" spans="46:64">
       <c r="AT49" s="3"/>
       <c r="AU49" s="3"/>
       <c r="AV49" s="3"/>
@@ -3228,7 +3226,7 @@
       <c r="BK49" s="3"/>
       <c r="BL49" s="3"/>
     </row>
-    <row r="50" spans="46:64" x14ac:dyDescent="0.15">
+    <row r="50" spans="46:64">
       <c r="AT50" s="3"/>
       <c r="AU50" s="3"/>
       <c r="AV50" s="3"/>
@@ -3249,7 +3247,7 @@
       <c r="BK50" s="3"/>
       <c r="BL50" s="3"/>
     </row>
-    <row r="51" spans="46:64" x14ac:dyDescent="0.15">
+    <row r="51" spans="46:64">
       <c r="AT51" s="3"/>
       <c r="AU51" s="3"/>
       <c r="AV51" s="3"/>
@@ -3270,7 +3268,7 @@
       <c r="BK51" s="3"/>
       <c r="BL51" s="3"/>
     </row>
-    <row r="52" spans="46:64" x14ac:dyDescent="0.15">
+    <row r="52" spans="46:64">
       <c r="AT52" s="3"/>
       <c r="AU52" s="3"/>
       <c r="AV52" s="3"/>
@@ -3291,7 +3289,7 @@
       <c r="BK52" s="3"/>
       <c r="BL52" s="3"/>
     </row>
-    <row r="53" spans="46:64" x14ac:dyDescent="0.15">
+    <row r="53" spans="46:64">
       <c r="AT53" s="3"/>
       <c r="AU53" s="3"/>
       <c r="AV53" s="3"/>
@@ -3312,7 +3310,7 @@
       <c r="BK53" s="3"/>
       <c r="BL53" s="3"/>
     </row>
-    <row r="54" spans="46:64" x14ac:dyDescent="0.15">
+    <row r="54" spans="46:64">
       <c r="AT54" s="3"/>
       <c r="AU54" s="3"/>
       <c r="AV54" s="3"/>
@@ -3333,7 +3331,7 @@
       <c r="BK54" s="3"/>
       <c r="BL54" s="3"/>
     </row>
-    <row r="55" spans="46:64" x14ac:dyDescent="0.15">
+    <row r="55" spans="46:64">
       <c r="AT55" s="3"/>
       <c r="AU55" s="3"/>
       <c r="AV55" s="3"/>
@@ -3354,7 +3352,7 @@
       <c r="BK55" s="3"/>
       <c r="BL55" s="3"/>
     </row>
-    <row r="56" spans="46:64" x14ac:dyDescent="0.15">
+    <row r="56" spans="46:64">
       <c r="AT56" s="3"/>
       <c r="AU56" s="3"/>
       <c r="AV56" s="3"/>
@@ -3375,7 +3373,7 @@
       <c r="BK56" s="3"/>
       <c r="BL56" s="3"/>
     </row>
-    <row r="57" spans="46:64" x14ac:dyDescent="0.15">
+    <row r="57" spans="46:64">
       <c r="AT57" s="3"/>
       <c r="AU57" s="3"/>
       <c r="AV57" s="3"/>
@@ -3396,7 +3394,7 @@
       <c r="BK57" s="3"/>
       <c r="BL57" s="3"/>
     </row>
-    <row r="58" spans="46:64" x14ac:dyDescent="0.15">
+    <row r="58" spans="46:64">
       <c r="AT58" s="3"/>
       <c r="AU58" s="3"/>
       <c r="AV58" s="3"/>
@@ -3417,7 +3415,7 @@
       <c r="BK58" s="3"/>
       <c r="BL58" s="3"/>
     </row>
-    <row r="59" spans="46:64" x14ac:dyDescent="0.15">
+    <row r="59" spans="46:64">
       <c r="AT59" s="3"/>
       <c r="AU59" s="3"/>
       <c r="AV59" s="3"/>
@@ -3438,7 +3436,7 @@
       <c r="BK59" s="3"/>
       <c r="BL59" s="3"/>
     </row>
-    <row r="60" spans="46:64" x14ac:dyDescent="0.15">
+    <row r="60" spans="46:64">
       <c r="AT60" s="3"/>
       <c r="AU60" s="3"/>
       <c r="AV60" s="3"/>
@@ -3459,7 +3457,7 @@
       <c r="BK60" s="3"/>
       <c r="BL60" s="3"/>
     </row>
-    <row r="61" spans="46:64" x14ac:dyDescent="0.15">
+    <row r="61" spans="46:64">
       <c r="AT61" s="3"/>
       <c r="AU61" s="3"/>
       <c r="AV61" s="3"/>
@@ -3480,7 +3478,7 @@
       <c r="BK61" s="3"/>
       <c r="BL61" s="3"/>
     </row>
-    <row r="62" spans="46:64" x14ac:dyDescent="0.15">
+    <row r="62" spans="46:64">
       <c r="AT62" s="3"/>
       <c r="AU62" s="3"/>
       <c r="AV62" s="3"/>
@@ -3501,7 +3499,7 @@
       <c r="BK62" s="3"/>
       <c r="BL62" s="3"/>
     </row>
-    <row r="63" spans="46:64" x14ac:dyDescent="0.15">
+    <row r="63" spans="46:64">
       <c r="AT63" s="3"/>
       <c r="AU63" s="3"/>
       <c r="AV63" s="3"/>
@@ -3522,7 +3520,7 @@
       <c r="BK63" s="3"/>
       <c r="BL63" s="3"/>
     </row>
-    <row r="64" spans="46:64" x14ac:dyDescent="0.15">
+    <row r="64" spans="46:64">
       <c r="AT64" s="3"/>
       <c r="AU64" s="3"/>
       <c r="AV64" s="3"/>
@@ -3543,7 +3541,7 @@
       <c r="BK64" s="3"/>
       <c r="BL64" s="3"/>
     </row>
-    <row r="65" spans="46:64" x14ac:dyDescent="0.15">
+    <row r="65" spans="46:64">
       <c r="AT65" s="3"/>
       <c r="AU65" s="3"/>
       <c r="AV65" s="3"/>
@@ -3564,7 +3562,7 @@
       <c r="BK65" s="3"/>
       <c r="BL65" s="3"/>
     </row>
-    <row r="66" spans="46:64" x14ac:dyDescent="0.15">
+    <row r="66" spans="46:64">
       <c r="AT66" s="3"/>
       <c r="AU66" s="3"/>
       <c r="AV66" s="3"/>
@@ -3585,7 +3583,7 @@
       <c r="BK66" s="3"/>
       <c r="BL66" s="3"/>
     </row>
-    <row r="67" spans="46:64" x14ac:dyDescent="0.15">
+    <row r="67" spans="46:64">
       <c r="AT67" s="3"/>
       <c r="AU67" s="3"/>
       <c r="AV67" s="3"/>
@@ -3606,7 +3604,7 @@
       <c r="BK67" s="3"/>
       <c r="BL67" s="3"/>
     </row>
-    <row r="68" spans="46:64" x14ac:dyDescent="0.15">
+    <row r="68" spans="46:64">
       <c r="AT68" s="3"/>
       <c r="AU68" s="3"/>
       <c r="AV68" s="3"/>
@@ -3627,7 +3625,7 @@
       <c r="BK68" s="3"/>
       <c r="BL68" s="3"/>
     </row>
-    <row r="69" spans="46:64" x14ac:dyDescent="0.15">
+    <row r="69" spans="46:64">
       <c r="AT69" s="3"/>
       <c r="AU69" s="3"/>
       <c r="AV69" s="3"/>
@@ -3648,7 +3646,7 @@
       <c r="BK69" s="3"/>
       <c r="BL69" s="3"/>
     </row>
-    <row r="70" spans="46:64" x14ac:dyDescent="0.15">
+    <row r="70" spans="46:64">
       <c r="AT70" s="3"/>
       <c r="AU70" s="3"/>
       <c r="AV70" s="3"/>
@@ -3669,7 +3667,7 @@
       <c r="BK70" s="3"/>
       <c r="BL70" s="3"/>
     </row>
-    <row r="71" spans="46:64" x14ac:dyDescent="0.15">
+    <row r="71" spans="46:64">
       <c r="AT71" s="3"/>
       <c r="AU71" s="3"/>
       <c r="AV71" s="3"/>
@@ -3690,7 +3688,7 @@
       <c r="BK71" s="3"/>
       <c r="BL71" s="3"/>
     </row>
-    <row r="72" spans="46:64" x14ac:dyDescent="0.15">
+    <row r="72" spans="46:64">
       <c r="AT72" s="3"/>
       <c r="AU72" s="3"/>
       <c r="AV72" s="3"/>
@@ -3711,7 +3709,7 @@
       <c r="BK72" s="3"/>
       <c r="BL72" s="3"/>
     </row>
-    <row r="73" spans="46:64" x14ac:dyDescent="0.15">
+    <row r="73" spans="46:64">
       <c r="AT73" s="3"/>
       <c r="AU73" s="3"/>
       <c r="AV73" s="3"/>
@@ -3732,7 +3730,7 @@
       <c r="BK73" s="3"/>
       <c r="BL73" s="3"/>
     </row>
-    <row r="74" spans="46:64" x14ac:dyDescent="0.15">
+    <row r="74" spans="46:64">
       <c r="AT74" s="3"/>
       <c r="AU74" s="3"/>
       <c r="AV74" s="3"/>
@@ -3753,7 +3751,7 @@
       <c r="BK74" s="3"/>
       <c r="BL74" s="3"/>
     </row>
-    <row r="75" spans="46:64" x14ac:dyDescent="0.15">
+    <row r="75" spans="46:64">
       <c r="AT75" s="3"/>
       <c r="AU75" s="3"/>
       <c r="AV75" s="3"/>
@@ -3774,7 +3772,7 @@
       <c r="BK75" s="3"/>
       <c r="BL75" s="3"/>
     </row>
-    <row r="76" spans="46:64" x14ac:dyDescent="0.15">
+    <row r="76" spans="46:64">
       <c r="AT76" s="3"/>
       <c r="AU76" s="3"/>
       <c r="AV76" s="3"/>
@@ -3795,7 +3793,7 @@
       <c r="BK76" s="3"/>
       <c r="BL76" s="3"/>
     </row>
-    <row r="77" spans="46:64" x14ac:dyDescent="0.15">
+    <row r="77" spans="46:64">
       <c r="AT77" s="3"/>
       <c r="AU77" s="3"/>
       <c r="AV77" s="3"/>
@@ -3816,7 +3814,7 @@
       <c r="BK77" s="3"/>
       <c r="BL77" s="3"/>
     </row>
-    <row r="78" spans="46:64" x14ac:dyDescent="0.15">
+    <row r="78" spans="46:64">
       <c r="AT78" s="3"/>
       <c r="AU78" s="3"/>
       <c r="AV78" s="3"/>
@@ -3837,7 +3835,7 @@
       <c r="BK78" s="3"/>
       <c r="BL78" s="3"/>
     </row>
-    <row r="79" spans="46:64" x14ac:dyDescent="0.15">
+    <row r="79" spans="46:64">
       <c r="AT79" s="3"/>
       <c r="AU79" s="3"/>
       <c r="AV79" s="3"/>
@@ -3858,7 +3856,7 @@
       <c r="BK79" s="3"/>
       <c r="BL79" s="3"/>
     </row>
-    <row r="80" spans="46:64" x14ac:dyDescent="0.15">
+    <row r="80" spans="46:64">
       <c r="AT80" s="3"/>
       <c r="AU80" s="3"/>
       <c r="AV80" s="3"/>
@@ -3879,7 +3877,7 @@
       <c r="BK80" s="3"/>
       <c r="BL80" s="3"/>
     </row>
-    <row r="81" spans="46:64" x14ac:dyDescent="0.15">
+    <row r="81" spans="46:64">
       <c r="AT81" s="3"/>
       <c r="AU81" s="3"/>
       <c r="AV81" s="3"/>
@@ -3900,7 +3898,7 @@
       <c r="BK81" s="3"/>
       <c r="BL81" s="3"/>
     </row>
-    <row r="82" spans="46:64" x14ac:dyDescent="0.15">
+    <row r="82" spans="46:64">
       <c r="AT82" s="3"/>
       <c r="AU82" s="3"/>
       <c r="AV82" s="3"/>
@@ -3921,7 +3919,7 @@
       <c r="BK82" s="3"/>
       <c r="BL82" s="3"/>
     </row>
-    <row r="83" spans="46:64" x14ac:dyDescent="0.15">
+    <row r="83" spans="46:64">
       <c r="AT83" s="3"/>
       <c r="AU83" s="3"/>
       <c r="AV83" s="3"/>
@@ -3942,7 +3940,7 @@
       <c r="BK83" s="3"/>
       <c r="BL83" s="3"/>
     </row>
-    <row r="84" spans="46:64" x14ac:dyDescent="0.15">
+    <row r="84" spans="46:64">
       <c r="AT84" s="3"/>
       <c r="AU84" s="3"/>
       <c r="AV84" s="3"/>
@@ -3963,7 +3961,7 @@
       <c r="BK84" s="3"/>
       <c r="BL84" s="3"/>
     </row>
-    <row r="85" spans="46:64" x14ac:dyDescent="0.15">
+    <row r="85" spans="46:64">
       <c r="AT85" s="3"/>
       <c r="AU85" s="3"/>
       <c r="AV85" s="3"/>
@@ -3984,7 +3982,7 @@
       <c r="BK85" s="3"/>
       <c r="BL85" s="3"/>
     </row>
-    <row r="86" spans="46:64" x14ac:dyDescent="0.15">
+    <row r="86" spans="46:64">
       <c r="AT86" s="3"/>
       <c r="AU86" s="3"/>
       <c r="AV86" s="3"/>
@@ -4005,7 +4003,7 @@
       <c r="BK86" s="3"/>
       <c r="BL86" s="3"/>
     </row>
-    <row r="87" spans="46:64" x14ac:dyDescent="0.15">
+    <row r="87" spans="46:64">
       <c r="AT87" s="3"/>
       <c r="AU87" s="3"/>
       <c r="AV87" s="3"/>
@@ -4026,7 +4024,7 @@
       <c r="BK87" s="3"/>
       <c r="BL87" s="3"/>
     </row>
-    <row r="88" spans="46:64" x14ac:dyDescent="0.15">
+    <row r="88" spans="46:64">
       <c r="AT88" s="3"/>
       <c r="AU88" s="3"/>
       <c r="AV88" s="3"/>
@@ -4047,7 +4045,7 @@
       <c r="BK88" s="3"/>
       <c r="BL88" s="3"/>
     </row>
-    <row r="89" spans="46:64" x14ac:dyDescent="0.15">
+    <row r="89" spans="46:64">
       <c r="AT89" s="3"/>
       <c r="AU89" s="3"/>
       <c r="AV89" s="3"/>
@@ -4068,7 +4066,7 @@
       <c r="BK89" s="3"/>
       <c r="BL89" s="3"/>
     </row>
-    <row r="90" spans="46:64" x14ac:dyDescent="0.15">
+    <row r="90" spans="46:64">
       <c r="AT90" s="3"/>
       <c r="AU90" s="3"/>
       <c r="AV90" s="3"/>
@@ -4089,7 +4087,7 @@
       <c r="BK90" s="3"/>
       <c r="BL90" s="3"/>
     </row>
-    <row r="91" spans="46:64" x14ac:dyDescent="0.15">
+    <row r="91" spans="46:64">
       <c r="AT91" s="3"/>
       <c r="AU91" s="3"/>
       <c r="AV91" s="3"/>
@@ -4110,7 +4108,7 @@
       <c r="BK91" s="3"/>
       <c r="BL91" s="3"/>
     </row>
-    <row r="92" spans="46:64" x14ac:dyDescent="0.15">
+    <row r="92" spans="46:64">
       <c r="AT92" s="3"/>
       <c r="AU92" s="3"/>
       <c r="AV92" s="3"/>
@@ -4131,7 +4129,7 @@
       <c r="BK92" s="3"/>
       <c r="BL92" s="3"/>
     </row>
-    <row r="93" spans="46:64" x14ac:dyDescent="0.15">
+    <row r="93" spans="46:64">
       <c r="AT93" s="3"/>
       <c r="AU93" s="3"/>
       <c r="AV93" s="3"/>
@@ -4152,7 +4150,7 @@
       <c r="BK93" s="3"/>
       <c r="BL93" s="3"/>
     </row>
-    <row r="94" spans="46:64" x14ac:dyDescent="0.15">
+    <row r="94" spans="46:64">
       <c r="AT94" s="3"/>
       <c r="AU94" s="3"/>
       <c r="AV94" s="3"/>
@@ -4173,7 +4171,7 @@
       <c r="BK94" s="3"/>
       <c r="BL94" s="3"/>
     </row>
-    <row r="95" spans="46:64" x14ac:dyDescent="0.15">
+    <row r="95" spans="46:64">
       <c r="AT95" s="3"/>
       <c r="AU95" s="3"/>
       <c r="AV95" s="3"/>
@@ -4194,7 +4192,7 @@
       <c r="BK95" s="3"/>
       <c r="BL95" s="3"/>
     </row>
-    <row r="96" spans="46:64" x14ac:dyDescent="0.15">
+    <row r="96" spans="46:64">
       <c r="AT96" s="3"/>
       <c r="AU96" s="3"/>
       <c r="AV96" s="3"/>
@@ -4215,7 +4213,7 @@
       <c r="BK96" s="3"/>
       <c r="BL96" s="3"/>
     </row>
-    <row r="97" spans="46:64" x14ac:dyDescent="0.15">
+    <row r="97" spans="46:64">
       <c r="AT97" s="3"/>
       <c r="AU97" s="3"/>
       <c r="AV97" s="3"/>
@@ -4236,7 +4234,7 @@
       <c r="BK97" s="3"/>
       <c r="BL97" s="3"/>
     </row>
-    <row r="98" spans="46:64" x14ac:dyDescent="0.15">
+    <row r="98" spans="46:64">
       <c r="AT98" s="3"/>
       <c r="AU98" s="3"/>
       <c r="AV98" s="3"/>
@@ -4257,7 +4255,7 @@
       <c r="BK98" s="3"/>
       <c r="BL98" s="3"/>
     </row>
-    <row r="99" spans="46:64" x14ac:dyDescent="0.15">
+    <row r="99" spans="46:64">
       <c r="AT99" s="3"/>
       <c r="AU99" s="3"/>
       <c r="AV99" s="3"/>
@@ -4278,7 +4276,7 @@
       <c r="BK99" s="3"/>
       <c r="BL99" s="3"/>
     </row>
-    <row r="100" spans="46:64" x14ac:dyDescent="0.15">
+    <row r="100" spans="46:64">
       <c r="AT100" s="3"/>
       <c r="AU100" s="3"/>
       <c r="AV100" s="3"/>
@@ -4299,7 +4297,7 @@
       <c r="BK100" s="3"/>
       <c r="BL100" s="3"/>
     </row>
-    <row r="101" spans="46:64" x14ac:dyDescent="0.15">
+    <row r="101" spans="46:64">
       <c r="AT101" s="3"/>
       <c r="AU101" s="3"/>
       <c r="AV101" s="3"/>
@@ -4320,7 +4318,7 @@
       <c r="BK101" s="3"/>
       <c r="BL101" s="3"/>
     </row>
-    <row r="102" spans="46:64" x14ac:dyDescent="0.15">
+    <row r="102" spans="46:64">
       <c r="AT102" s="3"/>
       <c r="AU102" s="3"/>
       <c r="AV102" s="3"/>
@@ -4341,7 +4339,7 @@
       <c r="BK102" s="3"/>
       <c r="BL102" s="3"/>
     </row>
-    <row r="103" spans="46:64" x14ac:dyDescent="0.15">
+    <row r="103" spans="46:64">
       <c r="AT103" s="3"/>
       <c r="AU103" s="3"/>
       <c r="AV103" s="3"/>
@@ -4362,7 +4360,7 @@
       <c r="BK103" s="3"/>
       <c r="BL103" s="3"/>
     </row>
-    <row r="104" spans="46:64" x14ac:dyDescent="0.15">
+    <row r="104" spans="46:64">
       <c r="AT104" s="3"/>
       <c r="AU104" s="3"/>
       <c r="AV104" s="3"/>
@@ -4383,7 +4381,7 @@
       <c r="BK104" s="3"/>
       <c r="BL104" s="3"/>
     </row>
-    <row r="105" spans="46:64" x14ac:dyDescent="0.15">
+    <row r="105" spans="46:64">
       <c r="AT105" s="3"/>
       <c r="AU105" s="3"/>
       <c r="AV105" s="3"/>
@@ -4404,7 +4402,7 @@
       <c r="BK105" s="3"/>
       <c r="BL105" s="3"/>
     </row>
-    <row r="106" spans="46:64" x14ac:dyDescent="0.15">
+    <row r="106" spans="46:64">
       <c r="AT106" s="3"/>
       <c r="AU106" s="3"/>
       <c r="AV106" s="3"/>
@@ -4425,7 +4423,7 @@
       <c r="BK106" s="3"/>
       <c r="BL106" s="3"/>
     </row>
-    <row r="107" spans="46:64" x14ac:dyDescent="0.15">
+    <row r="107" spans="46:64">
       <c r="AT107" s="3"/>
       <c r="AU107" s="3"/>
       <c r="AV107" s="3"/>
@@ -4446,7 +4444,7 @@
       <c r="BK107" s="3"/>
       <c r="BL107" s="3"/>
     </row>
-    <row r="108" spans="46:64" x14ac:dyDescent="0.15">
+    <row r="108" spans="46:64">
       <c r="AT108" s="3"/>
       <c r="AU108" s="3"/>
       <c r="AV108" s="3"/>
@@ -4467,7 +4465,7 @@
       <c r="BK108" s="3"/>
       <c r="BL108" s="3"/>
     </row>
-    <row r="109" spans="46:64" x14ac:dyDescent="0.15">
+    <row r="109" spans="46:64">
       <c r="AT109" s="3"/>
       <c r="AU109" s="3"/>
       <c r="AV109" s="3"/>
@@ -4488,7 +4486,7 @@
       <c r="BK109" s="3"/>
       <c r="BL109" s="3"/>
     </row>
-    <row r="110" spans="46:64" x14ac:dyDescent="0.15">
+    <row r="110" spans="46:64">
       <c r="AT110" s="3"/>
       <c r="AU110" s="3"/>
       <c r="AV110" s="3"/>
@@ -4509,7 +4507,7 @@
       <c r="BK110" s="3"/>
       <c r="BL110" s="3"/>
     </row>
-    <row r="111" spans="46:64" x14ac:dyDescent="0.15">
+    <row r="111" spans="46:64">
       <c r="AT111" s="3"/>
       <c r="AU111" s="3"/>
       <c r="AV111" s="3"/>
@@ -4530,7 +4528,7 @@
       <c r="BK111" s="3"/>
       <c r="BL111" s="3"/>
     </row>
-    <row r="112" spans="46:64" x14ac:dyDescent="0.15">
+    <row r="112" spans="46:64">
       <c r="AT112" s="3"/>
       <c r="AU112" s="3"/>
       <c r="AV112" s="3"/>
@@ -4551,7 +4549,7 @@
       <c r="BK112" s="3"/>
       <c r="BL112" s="3"/>
     </row>
-    <row r="113" spans="46:64" x14ac:dyDescent="0.15">
+    <row r="113" spans="46:64">
       <c r="AT113" s="3"/>
       <c r="AU113" s="3"/>
       <c r="AV113" s="3"/>
@@ -4572,7 +4570,7 @@
       <c r="BK113" s="3"/>
       <c r="BL113" s="3"/>
     </row>
-    <row r="114" spans="46:64" x14ac:dyDescent="0.15">
+    <row r="114" spans="46:64">
       <c r="AT114" s="3"/>
       <c r="AU114" s="3"/>
       <c r="AV114" s="3"/>
@@ -4593,7 +4591,7 @@
       <c r="BK114" s="3"/>
       <c r="BL114" s="3"/>
     </row>
-    <row r="115" spans="46:64" x14ac:dyDescent="0.15">
+    <row r="115" spans="46:64">
       <c r="AT115" s="3"/>
       <c r="AU115" s="3"/>
       <c r="AV115" s="3"/>
@@ -4614,7 +4612,7 @@
       <c r="BK115" s="3"/>
       <c r="BL115" s="3"/>
     </row>
-    <row r="116" spans="46:64" x14ac:dyDescent="0.15">
+    <row r="116" spans="46:64">
       <c r="AT116" s="3"/>
       <c r="AU116" s="3"/>
       <c r="AV116" s="3"/>
@@ -4635,7 +4633,7 @@
       <c r="BK116" s="3"/>
       <c r="BL116" s="3"/>
     </row>
-    <row r="117" spans="46:64" x14ac:dyDescent="0.15">
+    <row r="117" spans="46:64">
       <c r="AT117" s="3"/>
       <c r="AU117" s="3"/>
       <c r="AV117" s="3"/>
@@ -4656,7 +4654,7 @@
       <c r="BK117" s="3"/>
       <c r="BL117" s="3"/>
     </row>
-    <row r="118" spans="46:64" x14ac:dyDescent="0.15">
+    <row r="118" spans="46:64">
       <c r="AT118" s="3"/>
       <c r="AU118" s="3"/>
       <c r="AV118" s="3"/>
@@ -4677,7 +4675,7 @@
       <c r="BK118" s="3"/>
       <c r="BL118" s="3"/>
     </row>
-    <row r="119" spans="46:64" x14ac:dyDescent="0.15">
+    <row r="119" spans="46:64">
       <c r="AT119" s="3"/>
       <c r="AU119" s="3"/>
       <c r="AV119" s="3"/>
@@ -4698,7 +4696,7 @@
       <c r="BK119" s="3"/>
       <c r="BL119" s="3"/>
     </row>
-    <row r="120" spans="46:64" x14ac:dyDescent="0.15">
+    <row r="120" spans="46:64">
       <c r="AT120" s="3"/>
       <c r="AU120" s="3"/>
       <c r="AV120" s="3"/>
@@ -4719,7 +4717,7 @@
       <c r="BK120" s="3"/>
       <c r="BL120" s="3"/>
     </row>
-    <row r="121" spans="46:64" x14ac:dyDescent="0.15">
+    <row r="121" spans="46:64">
       <c r="AT121" s="3"/>
       <c r="AU121" s="3"/>
       <c r="AV121" s="3"/>
@@ -4740,7 +4738,7 @@
       <c r="BK121" s="3"/>
       <c r="BL121" s="3"/>
     </row>
-    <row r="122" spans="46:64" x14ac:dyDescent="0.15">
+    <row r="122" spans="46:64">
       <c r="AT122" s="3"/>
       <c r="AU122" s="3"/>
       <c r="AV122" s="3"/>
@@ -4761,7 +4759,7 @@
       <c r="BK122" s="3"/>
       <c r="BL122" s="3"/>
     </row>
-    <row r="123" spans="46:64" x14ac:dyDescent="0.15">
+    <row r="123" spans="46:64">
       <c r="AT123" s="3"/>
       <c r="AU123" s="3"/>
       <c r="AV123" s="3"/>
@@ -4782,7 +4780,7 @@
       <c r="BK123" s="3"/>
       <c r="BL123" s="3"/>
     </row>
-    <row r="124" spans="46:64" x14ac:dyDescent="0.15">
+    <row r="124" spans="46:64">
       <c r="AT124" s="3"/>
       <c r="AU124" s="3"/>
       <c r="AV124" s="3"/>
@@ -4803,7 +4801,7 @@
       <c r="BK124" s="3"/>
       <c r="BL124" s="3"/>
     </row>
-    <row r="125" spans="46:64" x14ac:dyDescent="0.15">
+    <row r="125" spans="46:64">
       <c r="AT125" s="3"/>
       <c r="AU125" s="3"/>
       <c r="AV125" s="3"/>
@@ -4824,7 +4822,7 @@
       <c r="BK125" s="3"/>
       <c r="BL125" s="3"/>
     </row>
-    <row r="126" spans="46:64" x14ac:dyDescent="0.15">
+    <row r="126" spans="46:64">
       <c r="AT126" s="3"/>
       <c r="AU126" s="3"/>
       <c r="AV126" s="3"/>
@@ -4845,7 +4843,7 @@
       <c r="BK126" s="3"/>
       <c r="BL126" s="3"/>
     </row>
-    <row r="127" spans="46:64" x14ac:dyDescent="0.15">
+    <row r="127" spans="46:64">
       <c r="AT127" s="3"/>
       <c r="AU127" s="3"/>
       <c r="AV127" s="3"/>
@@ -4866,7 +4864,7 @@
       <c r="BK127" s="3"/>
       <c r="BL127" s="3"/>
     </row>
-    <row r="128" spans="46:64" x14ac:dyDescent="0.15">
+    <row r="128" spans="46:64">
       <c r="AT128" s="3"/>
       <c r="AU128" s="3"/>
       <c r="AV128" s="3"/>
@@ -4887,7 +4885,7 @@
       <c r="BK128" s="3"/>
       <c r="BL128" s="3"/>
     </row>
-    <row r="129" spans="46:64" x14ac:dyDescent="0.15">
+    <row r="129" spans="46:64">
       <c r="AT129" s="3"/>
       <c r="AU129" s="3"/>
       <c r="AV129" s="3"/>
@@ -4908,7 +4906,7 @@
       <c r="BK129" s="3"/>
       <c r="BL129" s="3"/>
     </row>
-    <row r="130" spans="46:64" x14ac:dyDescent="0.15">
+    <row r="130" spans="46:64">
       <c r="AT130" s="3"/>
       <c r="AU130" s="3"/>
       <c r="AV130" s="3"/>
@@ -4929,7 +4927,7 @@
       <c r="BK130" s="3"/>
       <c r="BL130" s="3"/>
     </row>
-    <row r="131" spans="46:64" x14ac:dyDescent="0.15">
+    <row r="131" spans="46:64">
       <c r="AT131" s="3"/>
       <c r="AU131" s="3"/>
       <c r="AV131" s="3"/>
@@ -4950,7 +4948,7 @@
       <c r="BK131" s="3"/>
       <c r="BL131" s="3"/>
     </row>
-    <row r="132" spans="46:64" x14ac:dyDescent="0.15">
+    <row r="132" spans="46:64">
       <c r="AT132" s="3"/>
       <c r="AU132" s="3"/>
       <c r="AV132" s="3"/>
@@ -4971,7 +4969,7 @@
       <c r="BK132" s="3"/>
       <c r="BL132" s="3"/>
     </row>
-    <row r="133" spans="46:64" x14ac:dyDescent="0.15">
+    <row r="133" spans="46:64">
       <c r="AT133" s="3"/>
       <c r="AU133" s="3"/>
       <c r="AV133" s="3"/>
@@ -4992,7 +4990,7 @@
       <c r="BK133" s="3"/>
       <c r="BL133" s="3"/>
     </row>
-    <row r="134" spans="46:64" x14ac:dyDescent="0.15">
+    <row r="134" spans="46:64">
       <c r="AT134" s="3"/>
       <c r="AU134" s="3"/>
       <c r="AV134" s="3"/>
@@ -5013,7 +5011,7 @@
       <c r="BK134" s="3"/>
       <c r="BL134" s="3"/>
     </row>
-    <row r="135" spans="46:64" x14ac:dyDescent="0.15">
+    <row r="135" spans="46:64">
       <c r="AT135" s="3"/>
       <c r="AU135" s="3"/>
       <c r="AV135" s="3"/>
@@ -5037,7 +5035,12 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -5046,339 +5049,339 @@
   <dimension ref="A1:CZ160"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="Z4" sqref="Z4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="5.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="11" width="4.125" bestFit="1" customWidth="1"/>
-    <col min="12" max="27" width="5.125" bestFit="1" customWidth="1"/>
-    <col min="28" max="36" width="4.125" bestFit="1" customWidth="1"/>
-    <col min="37" max="44" width="5.125" bestFit="1" customWidth="1"/>
-    <col min="45" max="53" width="4.125" bestFit="1" customWidth="1"/>
-    <col min="54" max="70" width="5.125" bestFit="1" customWidth="1"/>
-    <col min="71" max="74" width="4.125" bestFit="1" customWidth="1"/>
-    <col min="75" max="104" width="5.625" customWidth="1"/>
-    <col min="105" max="16384" width="9" style="3"/>
+    <col min="1" max="1" width="5.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="11" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="27" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="36" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="37" max="44" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="45" max="53" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="54" max="70" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="71" max="74" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="75" max="104" width="5.6640625" customWidth="1"/>
+    <col min="105" max="16384" width="8.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:104" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:104">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="O1" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="N1" s="4" t="s">
+      <c r="P1" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="W1" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="X1" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y1" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="Z1" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA1" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="O1" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="S1" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="T1" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="U1" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="V1" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="W1" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="X1" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="Y1" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="Z1" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="AA1" s="4" t="s">
+      <c r="AC1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="AD1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="AH1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="AI1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="AJ1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="AK1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AL1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="AM1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AN1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="AO1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AP1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AQ1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AR1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="AS1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="AT1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AU1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AV1" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AW1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AX1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="AY1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AZ1" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="BA1" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="BB1" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="BC1" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="BD1" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="BE1" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="BF1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="BG1" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="BH1" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="BI1" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="BJ1" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="BK1" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="BL1" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="BM1" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="BN1" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="BO1" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="BP1" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="BQ1" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="BR1" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="AB1" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="AC1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="AD1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="AE1" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="AF1" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="AG1" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="AH1" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="AI1" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="AJ1" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="AK1" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="AL1" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="AM1" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="AN1" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="AO1" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="AP1" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="AQ1" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="AR1" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="AS1" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="AT1" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="AU1" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="AV1" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="AW1" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="AX1" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="AY1" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="AZ1" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="BA1" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="BB1" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="BC1" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="BD1" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="BE1" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="BF1" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="BG1" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="BH1" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="BI1" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="BJ1" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="BK1" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="BL1" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="BM1" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="BN1" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="BO1" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="BP1" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="BQ1" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="BR1" s="4" t="s">
+      <c r="BS1" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="BS1" s="4" t="s">
+      <c r="BT1" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="BT1" s="4" t="s">
+      <c r="BU1" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="BU1" s="4" t="s">
+      <c r="BV1" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="BV1" s="4" t="s">
-        <v>115</v>
-      </c>
       <c r="BW1" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="BX1" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="BX1" s="4" t="s">
+      <c r="BY1" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="BY1" s="4" t="s">
+      <c r="BZ1" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="BZ1" s="4" t="s">
+      <c r="CA1" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="CA1" s="4" t="s">
+      <c r="CB1" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="CB1" s="4" t="s">
+      <c r="CC1" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="CC1" s="4" t="s">
+      <c r="CD1" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="CD1" s="4" t="s">
+      <c r="CE1" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="CE1" s="4" t="s">
+      <c r="CF1" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="CF1" s="4" t="s">
+      <c r="CG1" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="CG1" s="4" t="s">
+      <c r="CH1" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="CH1" s="4" t="s">
+      <c r="CI1" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="CI1" s="4" t="s">
+      <c r="CJ1" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="CJ1" s="4" t="s">
+      <c r="CK1" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="CK1" s="4" t="s">
+      <c r="CL1" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="CL1" s="4" t="s">
+      <c r="CM1" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="CM1" s="4" t="s">
+      <c r="CN1" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="CN1" s="4" t="s">
+      <c r="CO1" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="CO1" s="4" t="s">
+      <c r="CP1" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="CP1" s="4" t="s">
+      <c r="CQ1" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="CQ1" s="4" t="s">
+      <c r="CR1" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="CR1" s="4" t="s">
+      <c r="CS1" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="CS1" s="4" t="s">
+      <c r="CT1" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="CT1" s="4" t="s">
+      <c r="CU1" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="CU1" s="4" t="s">
+      <c r="CV1" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="CV1" s="4" t="s">
+      <c r="CW1" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="CW1" s="4" t="s">
+      <c r="CX1" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="CX1" s="4" t="s">
+      <c r="CY1" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="CY1" s="4" t="s">
+      <c r="CZ1" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="CZ1" s="4" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="2" spans="1:104" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:104">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
@@ -5602,7 +5605,7 @@
         <v>9</v>
       </c>
       <c r="BW2" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="BX2" s="6"/>
       <c r="BY2" s="6"/>
@@ -5634,12 +5637,12 @@
       <c r="CY2" s="6"/>
       <c r="CZ2" s="6"/>
     </row>
-    <row r="3" spans="1:104" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:104">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" s="4">
         <v>1</v>
@@ -5858,7 +5861,7 @@
         <v>1</v>
       </c>
       <c r="BW3" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="BX3" s="9"/>
       <c r="BY3" s="6"/>
@@ -5890,13 +5893,13 @@
       <c r="CY3" s="6"/>
       <c r="CZ3" s="6"/>
     </row>
-    <row r="4" spans="1:104" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:104">
       <c r="A4" s="4">
         <f>SUM(BW4:CZ4)</f>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C4" s="4">
         <v>2</v>
@@ -5967,8 +5970,8 @@
       <c r="Y4" s="4">
         <v>3</v>
       </c>
-      <c r="Z4" s="4" t="s">
-        <v>3</v>
+      <c r="Z4" s="4">
+        <v>0</v>
       </c>
       <c r="AA4" s="4">
         <v>9</v>
@@ -6148,7 +6151,7 @@
       </c>
       <c r="CE4" s="2">
         <f t="shared" ref="CE4:CE14" si="8">IF(AND(W4=W$2,X4=X$2,Y4=Y$2,Z4=Z$2,AA4=AA$2),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF4" s="2">
         <f t="shared" ref="CF4:CF14" si="9">IF(AND(AB4=AB$2,AC4=AC$2,AD4=AD$2,AE4=AE$2,AF4=AF$2),1,0)</f>
@@ -6235,7 +6238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:104" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:104">
       <c r="A5" s="4">
         <f t="shared" ref="A5:A68" si="30">SUM(BW5:CZ5)</f>
         <v>0</v>
@@ -6362,7 +6365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:104" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:104">
       <c r="A6" s="4">
         <f t="shared" si="30"/>
         <v>0</v>
@@ -6488,7 +6491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:104" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:104">
       <c r="A7" s="4">
         <f t="shared" si="30"/>
         <v>0</v>
@@ -6614,7 +6617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:104" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:104">
       <c r="A8" s="4">
         <f t="shared" si="30"/>
         <v>0</v>
@@ -6740,7 +6743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:104" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:104">
       <c r="A9" s="4">
         <f t="shared" si="30"/>
         <v>0</v>
@@ -6866,7 +6869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:104" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:104">
       <c r="A10" s="4">
         <f t="shared" si="30"/>
         <v>0</v>
@@ -6992,7 +6995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:104" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:104">
       <c r="A11" s="4">
         <f t="shared" si="30"/>
         <v>0</v>
@@ -7118,7 +7121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:104" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:104">
       <c r="A12" s="4">
         <f t="shared" si="30"/>
         <v>0</v>
@@ -7244,7 +7247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:104" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:104">
       <c r="A13" s="4">
         <f t="shared" si="30"/>
         <v>0</v>
@@ -7371,7 +7374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:104" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:104">
       <c r="A14" s="4">
         <f t="shared" si="30"/>
         <v>0</v>
@@ -7497,7 +7500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:104" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:104">
       <c r="A15" s="4">
         <f t="shared" si="30"/>
         <v>0</v>
@@ -7533,7 +7536,7 @@
       <c r="CY15" s="3"/>
       <c r="CZ15" s="3"/>
     </row>
-    <row r="16" spans="1:104" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:104">
       <c r="A16" s="4">
         <f t="shared" si="30"/>
         <v>0</v>
@@ -7569,7 +7572,7 @@
       <c r="CY16" s="3"/>
       <c r="CZ16" s="3"/>
     </row>
-    <row r="17" spans="1:104" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:104">
       <c r="A17" s="4">
         <f t="shared" si="30"/>
         <v>0</v>
@@ -7605,7 +7608,7 @@
       <c r="CY17" s="3"/>
       <c r="CZ17" s="3"/>
     </row>
-    <row r="18" spans="1:104" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:104">
       <c r="A18" s="4">
         <f t="shared" si="30"/>
         <v>0</v>
@@ -7641,7 +7644,7 @@
       <c r="CY18" s="3"/>
       <c r="CZ18" s="3"/>
     </row>
-    <row r="19" spans="1:104" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:104">
       <c r="A19" s="4">
         <f t="shared" si="30"/>
         <v>0</v>
@@ -7677,7 +7680,7 @@
       <c r="CY19" s="3"/>
       <c r="CZ19" s="3"/>
     </row>
-    <row r="20" spans="1:104" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:104">
       <c r="A20" s="4">
         <f t="shared" si="30"/>
         <v>0</v>
@@ -7713,7 +7716,7 @@
       <c r="CY20" s="3"/>
       <c r="CZ20" s="3"/>
     </row>
-    <row r="21" spans="1:104" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:104">
       <c r="A21" s="4">
         <f t="shared" si="30"/>
         <v>0</v>
@@ -7749,7 +7752,7 @@
       <c r="CY21" s="3"/>
       <c r="CZ21" s="3"/>
     </row>
-    <row r="22" spans="1:104" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:104">
       <c r="A22" s="4">
         <f t="shared" si="30"/>
         <v>0</v>
@@ -7785,7 +7788,7 @@
       <c r="CY22" s="3"/>
       <c r="CZ22" s="3"/>
     </row>
-    <row r="23" spans="1:104" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:104">
       <c r="A23" s="4">
         <f t="shared" si="30"/>
         <v>0</v>
@@ -7821,7 +7824,7 @@
       <c r="CY23" s="3"/>
       <c r="CZ23" s="3"/>
     </row>
-    <row r="24" spans="1:104" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:104">
       <c r="A24" s="4">
         <f t="shared" si="30"/>
         <v>0</v>
@@ -7857,7 +7860,7 @@
       <c r="CY24" s="3"/>
       <c r="CZ24" s="3"/>
     </row>
-    <row r="25" spans="1:104" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:104">
       <c r="A25" s="4">
         <f t="shared" si="30"/>
         <v>0</v>
@@ -7893,7 +7896,7 @@
       <c r="CY25" s="3"/>
       <c r="CZ25" s="3"/>
     </row>
-    <row r="26" spans="1:104" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:104">
       <c r="A26" s="4">
         <f t="shared" si="30"/>
         <v>0</v>
@@ -7929,7 +7932,7 @@
       <c r="CY26" s="3"/>
       <c r="CZ26" s="3"/>
     </row>
-    <row r="27" spans="1:104" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:104">
       <c r="A27" s="4">
         <f t="shared" si="30"/>
         <v>0</v>
@@ -7965,7 +7968,7 @@
       <c r="CY27" s="3"/>
       <c r="CZ27" s="3"/>
     </row>
-    <row r="28" spans="1:104" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:104">
       <c r="A28" s="4">
         <f t="shared" si="30"/>
         <v>0</v>
@@ -8001,7 +8004,7 @@
       <c r="CY28" s="3"/>
       <c r="CZ28" s="3"/>
     </row>
-    <row r="29" spans="1:104" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:104">
       <c r="A29" s="4">
         <f t="shared" si="30"/>
         <v>0</v>
@@ -8037,7 +8040,7 @@
       <c r="CY29" s="3"/>
       <c r="CZ29" s="3"/>
     </row>
-    <row r="30" spans="1:104" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:104">
       <c r="A30" s="4">
         <f t="shared" si="30"/>
         <v>0</v>
@@ -8073,7 +8076,7 @@
       <c r="CY30" s="3"/>
       <c r="CZ30" s="3"/>
     </row>
-    <row r="31" spans="1:104" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:104">
       <c r="A31" s="4">
         <f t="shared" si="30"/>
         <v>0</v>
@@ -8109,7 +8112,7 @@
       <c r="CY31" s="3"/>
       <c r="CZ31" s="3"/>
     </row>
-    <row r="32" spans="1:104" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:104">
       <c r="A32" s="4">
         <f t="shared" si="30"/>
         <v>0</v>
@@ -8145,7 +8148,7 @@
       <c r="CY32" s="3"/>
       <c r="CZ32" s="3"/>
     </row>
-    <row r="33" spans="1:104" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:104">
       <c r="A33" s="4">
         <f t="shared" si="30"/>
         <v>0</v>
@@ -8181,7 +8184,7 @@
       <c r="CY33" s="3"/>
       <c r="CZ33" s="3"/>
     </row>
-    <row r="34" spans="1:104" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:104">
       <c r="A34" s="4">
         <f t="shared" si="30"/>
         <v>0</v>
@@ -8217,7 +8220,7 @@
       <c r="CY34" s="3"/>
       <c r="CZ34" s="3"/>
     </row>
-    <row r="35" spans="1:104" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:104">
       <c r="A35" s="4">
         <f t="shared" si="30"/>
         <v>0</v>
@@ -8253,7 +8256,7 @@
       <c r="CY35" s="3"/>
       <c r="CZ35" s="3"/>
     </row>
-    <row r="36" spans="1:104" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:104">
       <c r="A36" s="4">
         <f t="shared" si="30"/>
         <v>0</v>
@@ -8289,7 +8292,7 @@
       <c r="CY36" s="3"/>
       <c r="CZ36" s="3"/>
     </row>
-    <row r="37" spans="1:104" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:104">
       <c r="A37" s="4">
         <f t="shared" si="30"/>
         <v>0</v>
@@ -8325,7 +8328,7 @@
       <c r="CY37" s="3"/>
       <c r="CZ37" s="3"/>
     </row>
-    <row r="38" spans="1:104" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:104">
       <c r="A38" s="4">
         <f t="shared" si="30"/>
         <v>0</v>
@@ -8361,7 +8364,7 @@
       <c r="CY38" s="3"/>
       <c r="CZ38" s="3"/>
     </row>
-    <row r="39" spans="1:104" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:104">
       <c r="A39" s="4">
         <f t="shared" si="30"/>
         <v>0</v>
@@ -8397,7 +8400,7 @@
       <c r="CY39" s="3"/>
       <c r="CZ39" s="3"/>
     </row>
-    <row r="40" spans="1:104" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:104">
       <c r="A40" s="4">
         <f t="shared" si="30"/>
         <v>0</v>
@@ -8433,7 +8436,7 @@
       <c r="CY40" s="3"/>
       <c r="CZ40" s="3"/>
     </row>
-    <row r="41" spans="1:104" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:104">
       <c r="A41" s="4">
         <f t="shared" si="30"/>
         <v>0</v>
@@ -8469,7 +8472,7 @@
       <c r="CY41" s="3"/>
       <c r="CZ41" s="3"/>
     </row>
-    <row r="42" spans="1:104" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:104">
       <c r="A42" s="4">
         <f t="shared" si="30"/>
         <v>0</v>
@@ -8505,7 +8508,7 @@
       <c r="CY42" s="3"/>
       <c r="CZ42" s="3"/>
     </row>
-    <row r="43" spans="1:104" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:104">
       <c r="A43" s="4">
         <f t="shared" si="30"/>
         <v>0</v>
@@ -8541,7 +8544,7 @@
       <c r="CY43" s="3"/>
       <c r="CZ43" s="3"/>
     </row>
-    <row r="44" spans="1:104" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:104">
       <c r="A44" s="4">
         <f t="shared" si="30"/>
         <v>0</v>
@@ -8577,7 +8580,7 @@
       <c r="CY44" s="3"/>
       <c r="CZ44" s="3"/>
     </row>
-    <row r="45" spans="1:104" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:104">
       <c r="A45" s="4">
         <f t="shared" si="30"/>
         <v>0</v>
@@ -8613,7 +8616,7 @@
       <c r="CY45" s="3"/>
       <c r="CZ45" s="3"/>
     </row>
-    <row r="46" spans="1:104" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:104">
       <c r="A46" s="4">
         <f t="shared" si="30"/>
         <v>0</v>
@@ -8649,7 +8652,7 @@
       <c r="CY46" s="3"/>
       <c r="CZ46" s="3"/>
     </row>
-    <row r="47" spans="1:104" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:104">
       <c r="A47" s="4">
         <f t="shared" si="30"/>
         <v>0</v>
@@ -8685,7 +8688,7 @@
       <c r="CY47" s="3"/>
       <c r="CZ47" s="3"/>
     </row>
-    <row r="48" spans="1:104" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:104">
       <c r="A48" s="4">
         <f t="shared" si="30"/>
         <v>0</v>
@@ -8721,7 +8724,7 @@
       <c r="CY48" s="3"/>
       <c r="CZ48" s="3"/>
     </row>
-    <row r="49" spans="1:104" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:104">
       <c r="A49" s="4">
         <f t="shared" si="30"/>
         <v>0</v>
@@ -8757,7 +8760,7 @@
       <c r="CY49" s="3"/>
       <c r="CZ49" s="3"/>
     </row>
-    <row r="50" spans="1:104" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:104">
       <c r="A50" s="4">
         <f t="shared" si="30"/>
         <v>0</v>
@@ -8793,7 +8796,7 @@
       <c r="CY50" s="3"/>
       <c r="CZ50" s="3"/>
     </row>
-    <row r="51" spans="1:104" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:104">
       <c r="A51" s="4">
         <f t="shared" si="30"/>
         <v>0</v>
@@ -8829,7 +8832,7 @@
       <c r="CY51" s="3"/>
       <c r="CZ51" s="3"/>
     </row>
-    <row r="52" spans="1:104" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:104">
       <c r="A52" s="4">
         <f t="shared" si="30"/>
         <v>0</v>
@@ -8865,7 +8868,7 @@
       <c r="CY52" s="3"/>
       <c r="CZ52" s="3"/>
     </row>
-    <row r="53" spans="1:104" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:104">
       <c r="A53" s="4">
         <f t="shared" si="30"/>
         <v>0</v>
@@ -8901,7 +8904,7 @@
       <c r="CY53" s="3"/>
       <c r="CZ53" s="3"/>
     </row>
-    <row r="54" spans="1:104" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:104">
       <c r="A54" s="4">
         <f t="shared" si="30"/>
         <v>0</v>
@@ -8937,7 +8940,7 @@
       <c r="CY54" s="3"/>
       <c r="CZ54" s="3"/>
     </row>
-    <row r="55" spans="1:104" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:104">
       <c r="A55" s="4">
         <f t="shared" si="30"/>
         <v>0</v>
@@ -8973,7 +8976,7 @@
       <c r="CY55" s="3"/>
       <c r="CZ55" s="3"/>
     </row>
-    <row r="56" spans="1:104" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:104">
       <c r="A56" s="4">
         <f t="shared" si="30"/>
         <v>0</v>
@@ -9009,7 +9012,7 @@
       <c r="CY56" s="3"/>
       <c r="CZ56" s="3"/>
     </row>
-    <row r="57" spans="1:104" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:104">
       <c r="A57" s="4">
         <f t="shared" si="30"/>
         <v>0</v>
@@ -9045,7 +9048,7 @@
       <c r="CY57" s="3"/>
       <c r="CZ57" s="3"/>
     </row>
-    <row r="58" spans="1:104" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:104">
       <c r="A58" s="4">
         <f t="shared" si="30"/>
         <v>0</v>
@@ -9081,7 +9084,7 @@
       <c r="CY58" s="3"/>
       <c r="CZ58" s="3"/>
     </row>
-    <row r="59" spans="1:104" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:104">
       <c r="A59" s="4">
         <f t="shared" si="30"/>
         <v>0</v>
@@ -9117,7 +9120,7 @@
       <c r="CY59" s="3"/>
       <c r="CZ59" s="3"/>
     </row>
-    <row r="60" spans="1:104" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:104">
       <c r="A60" s="4">
         <f t="shared" si="30"/>
         <v>0</v>
@@ -9153,7 +9156,7 @@
       <c r="CY60" s="3"/>
       <c r="CZ60" s="3"/>
     </row>
-    <row r="61" spans="1:104" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:104">
       <c r="A61" s="4">
         <f t="shared" si="30"/>
         <v>0</v>
@@ -9189,7 +9192,7 @@
       <c r="CY61" s="3"/>
       <c r="CZ61" s="3"/>
     </row>
-    <row r="62" spans="1:104" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:104">
       <c r="A62" s="4">
         <f t="shared" si="30"/>
         <v>0</v>
@@ -9225,7 +9228,7 @@
       <c r="CY62" s="3"/>
       <c r="CZ62" s="3"/>
     </row>
-    <row r="63" spans="1:104" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:104">
       <c r="A63" s="4">
         <f t="shared" si="30"/>
         <v>0</v>
@@ -9261,7 +9264,7 @@
       <c r="CY63" s="3"/>
       <c r="CZ63" s="3"/>
     </row>
-    <row r="64" spans="1:104" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:104">
       <c r="A64" s="4">
         <f t="shared" si="30"/>
         <v>0</v>
@@ -9297,7 +9300,7 @@
       <c r="CY64" s="3"/>
       <c r="CZ64" s="3"/>
     </row>
-    <row r="65" spans="1:104" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:104">
       <c r="A65" s="4">
         <f t="shared" si="30"/>
         <v>0</v>
@@ -9333,7 +9336,7 @@
       <c r="CY65" s="3"/>
       <c r="CZ65" s="3"/>
     </row>
-    <row r="66" spans="1:104" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:104">
       <c r="A66" s="4">
         <f t="shared" si="30"/>
         <v>0</v>
@@ -9369,7 +9372,7 @@
       <c r="CY66" s="3"/>
       <c r="CZ66" s="3"/>
     </row>
-    <row r="67" spans="1:104" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:104">
       <c r="A67" s="4">
         <f t="shared" si="30"/>
         <v>0</v>
@@ -9405,7 +9408,7 @@
       <c r="CY67" s="3"/>
       <c r="CZ67" s="3"/>
     </row>
-    <row r="68" spans="1:104" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:104">
       <c r="A68" s="4">
         <f t="shared" si="30"/>
         <v>0</v>
@@ -9441,7 +9444,7 @@
       <c r="CY68" s="3"/>
       <c r="CZ68" s="3"/>
     </row>
-    <row r="69" spans="1:104" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:104">
       <c r="A69" s="4">
         <f t="shared" ref="A69:A116" si="31">SUM(BW69:CZ69)</f>
         <v>0</v>
@@ -9477,7 +9480,7 @@
       <c r="CY69" s="3"/>
       <c r="CZ69" s="3"/>
     </row>
-    <row r="70" spans="1:104" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:104">
       <c r="A70" s="4">
         <f t="shared" si="31"/>
         <v>0</v>
@@ -9513,7 +9516,7 @@
       <c r="CY70" s="3"/>
       <c r="CZ70" s="3"/>
     </row>
-    <row r="71" spans="1:104" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:104">
       <c r="A71" s="4">
         <f t="shared" si="31"/>
         <v>0</v>
@@ -9549,7 +9552,7 @@
       <c r="CY71" s="3"/>
       <c r="CZ71" s="3"/>
     </row>
-    <row r="72" spans="1:104" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:104">
       <c r="A72" s="4">
         <f t="shared" si="31"/>
         <v>0</v>
@@ -9585,7 +9588,7 @@
       <c r="CY72" s="3"/>
       <c r="CZ72" s="3"/>
     </row>
-    <row r="73" spans="1:104" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:104">
       <c r="A73" s="4">
         <f t="shared" si="31"/>
         <v>0</v>
@@ -9621,7 +9624,7 @@
       <c r="CY73" s="3"/>
       <c r="CZ73" s="3"/>
     </row>
-    <row r="74" spans="1:104" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:104">
       <c r="A74" s="4">
         <f t="shared" si="31"/>
         <v>0</v>
@@ -9657,7 +9660,7 @@
       <c r="CY74" s="3"/>
       <c r="CZ74" s="3"/>
     </row>
-    <row r="75" spans="1:104" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:104">
       <c r="A75" s="4">
         <f t="shared" si="31"/>
         <v>0</v>
@@ -9693,7 +9696,7 @@
       <c r="CY75" s="3"/>
       <c r="CZ75" s="3"/>
     </row>
-    <row r="76" spans="1:104" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:104">
       <c r="A76" s="4">
         <f t="shared" si="31"/>
         <v>0</v>
@@ -9729,7 +9732,7 @@
       <c r="CY76" s="3"/>
       <c r="CZ76" s="3"/>
     </row>
-    <row r="77" spans="1:104" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:104">
       <c r="A77" s="4">
         <f t="shared" si="31"/>
         <v>0</v>
@@ -9765,7 +9768,7 @@
       <c r="CY77" s="3"/>
       <c r="CZ77" s="3"/>
     </row>
-    <row r="78" spans="1:104" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:104">
       <c r="A78" s="4">
         <f t="shared" si="31"/>
         <v>0</v>
@@ -9801,7 +9804,7 @@
       <c r="CY78" s="3"/>
       <c r="CZ78" s="3"/>
     </row>
-    <row r="79" spans="1:104" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:104">
       <c r="A79" s="4">
         <f t="shared" si="31"/>
         <v>0</v>
@@ -9837,7 +9840,7 @@
       <c r="CY79" s="3"/>
       <c r="CZ79" s="3"/>
     </row>
-    <row r="80" spans="1:104" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:104">
       <c r="A80" s="4">
         <f t="shared" si="31"/>
         <v>0</v>
@@ -9873,7 +9876,7 @@
       <c r="CY80" s="3"/>
       <c r="CZ80" s="3"/>
     </row>
-    <row r="81" spans="1:104" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:104">
       <c r="A81" s="4">
         <f t="shared" si="31"/>
         <v>0</v>
@@ -9909,7 +9912,7 @@
       <c r="CY81" s="3"/>
       <c r="CZ81" s="3"/>
     </row>
-    <row r="82" spans="1:104" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:104">
       <c r="A82" s="4">
         <f t="shared" si="31"/>
         <v>0</v>
@@ -9945,7 +9948,7 @@
       <c r="CY82" s="3"/>
       <c r="CZ82" s="3"/>
     </row>
-    <row r="83" spans="1:104" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:104">
       <c r="A83" s="4">
         <f t="shared" si="31"/>
         <v>0</v>
@@ -9981,7 +9984,7 @@
       <c r="CY83" s="3"/>
       <c r="CZ83" s="3"/>
     </row>
-    <row r="84" spans="1:104" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:104">
       <c r="A84" s="4">
         <f t="shared" si="31"/>
         <v>0</v>
@@ -10017,7 +10020,7 @@
       <c r="CY84" s="3"/>
       <c r="CZ84" s="3"/>
     </row>
-    <row r="85" spans="1:104" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:104">
       <c r="A85" s="4">
         <f t="shared" si="31"/>
         <v>0</v>
@@ -10053,7 +10056,7 @@
       <c r="CY85" s="3"/>
       <c r="CZ85" s="3"/>
     </row>
-    <row r="86" spans="1:104" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:104">
       <c r="A86" s="4">
         <f t="shared" si="31"/>
         <v>0</v>
@@ -10089,7 +10092,7 @@
       <c r="CY86" s="3"/>
       <c r="CZ86" s="3"/>
     </row>
-    <row r="87" spans="1:104" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:104">
       <c r="A87" s="4">
         <f t="shared" si="31"/>
         <v>0</v>
@@ -10125,7 +10128,7 @@
       <c r="CY87" s="3"/>
       <c r="CZ87" s="3"/>
     </row>
-    <row r="88" spans="1:104" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:104">
       <c r="A88" s="4">
         <f t="shared" si="31"/>
         <v>0</v>
@@ -10161,7 +10164,7 @@
       <c r="CY88" s="3"/>
       <c r="CZ88" s="3"/>
     </row>
-    <row r="89" spans="1:104" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:104">
       <c r="A89" s="4">
         <f t="shared" si="31"/>
         <v>0</v>
@@ -10197,7 +10200,7 @@
       <c r="CY89" s="3"/>
       <c r="CZ89" s="3"/>
     </row>
-    <row r="90" spans="1:104" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:104">
       <c r="A90" s="4">
         <f t="shared" si="31"/>
         <v>0</v>
@@ -10233,7 +10236,7 @@
       <c r="CY90" s="3"/>
       <c r="CZ90" s="3"/>
     </row>
-    <row r="91" spans="1:104" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:104">
       <c r="A91" s="4">
         <f t="shared" si="31"/>
         <v>0</v>
@@ -10269,7 +10272,7 @@
       <c r="CY91" s="3"/>
       <c r="CZ91" s="3"/>
     </row>
-    <row r="92" spans="1:104" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:104">
       <c r="A92" s="4">
         <f t="shared" si="31"/>
         <v>0</v>
@@ -10305,7 +10308,7 @@
       <c r="CY92" s="3"/>
       <c r="CZ92" s="3"/>
     </row>
-    <row r="93" spans="1:104" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:104">
       <c r="A93" s="4">
         <f t="shared" si="31"/>
         <v>0</v>
@@ -10341,7 +10344,7 @@
       <c r="CY93" s="3"/>
       <c r="CZ93" s="3"/>
     </row>
-    <row r="94" spans="1:104" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:104">
       <c r="A94" s="4">
         <f t="shared" si="31"/>
         <v>0</v>
@@ -10377,7 +10380,7 @@
       <c r="CY94" s="3"/>
       <c r="CZ94" s="3"/>
     </row>
-    <row r="95" spans="1:104" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:104">
       <c r="A95" s="4">
         <f t="shared" si="31"/>
         <v>0</v>
@@ -10413,7 +10416,7 @@
       <c r="CY95" s="3"/>
       <c r="CZ95" s="3"/>
     </row>
-    <row r="96" spans="1:104" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:104">
       <c r="A96" s="4">
         <f t="shared" si="31"/>
         <v>0</v>
@@ -10449,7 +10452,7 @@
       <c r="CY96" s="3"/>
       <c r="CZ96" s="3"/>
     </row>
-    <row r="97" spans="1:104" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:104">
       <c r="A97" s="4">
         <f t="shared" si="31"/>
         <v>0</v>
@@ -10485,7 +10488,7 @@
       <c r="CY97" s="3"/>
       <c r="CZ97" s="3"/>
     </row>
-    <row r="98" spans="1:104" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:104">
       <c r="A98" s="4">
         <f t="shared" si="31"/>
         <v>0</v>
@@ -10521,7 +10524,7 @@
       <c r="CY98" s="3"/>
       <c r="CZ98" s="3"/>
     </row>
-    <row r="99" spans="1:104" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:104">
       <c r="A99" s="4">
         <f t="shared" si="31"/>
         <v>0</v>
@@ -10557,7 +10560,7 @@
       <c r="CY99" s="3"/>
       <c r="CZ99" s="3"/>
     </row>
-    <row r="100" spans="1:104" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:104">
       <c r="A100" s="4">
         <f t="shared" si="31"/>
         <v>0</v>
@@ -10593,7 +10596,7 @@
       <c r="CY100" s="3"/>
       <c r="CZ100" s="3"/>
     </row>
-    <row r="101" spans="1:104" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:104">
       <c r="A101" s="4">
         <f t="shared" si="31"/>
         <v>0</v>
@@ -10629,7 +10632,7 @@
       <c r="CY101" s="3"/>
       <c r="CZ101" s="3"/>
     </row>
-    <row r="102" spans="1:104" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:104">
       <c r="A102" s="4">
         <f t="shared" si="31"/>
         <v>0</v>
@@ -10665,7 +10668,7 @@
       <c r="CY102" s="3"/>
       <c r="CZ102" s="3"/>
     </row>
-    <row r="103" spans="1:104" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:104">
       <c r="A103" s="4">
         <f t="shared" si="31"/>
         <v>0</v>
@@ -10701,7 +10704,7 @@
       <c r="CY103" s="3"/>
       <c r="CZ103" s="3"/>
     </row>
-    <row r="104" spans="1:104" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:104">
       <c r="A104" s="4">
         <f t="shared" si="31"/>
         <v>0</v>
@@ -10737,7 +10740,7 @@
       <c r="CY104" s="3"/>
       <c r="CZ104" s="3"/>
     </row>
-    <row r="105" spans="1:104" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:104">
       <c r="A105" s="4">
         <f t="shared" si="31"/>
         <v>0</v>
@@ -10773,7 +10776,7 @@
       <c r="CY105" s="3"/>
       <c r="CZ105" s="3"/>
     </row>
-    <row r="106" spans="1:104" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:104">
       <c r="A106" s="4">
         <f t="shared" si="31"/>
         <v>0</v>
@@ -10809,7 +10812,7 @@
       <c r="CY106" s="3"/>
       <c r="CZ106" s="3"/>
     </row>
-    <row r="107" spans="1:104" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:104">
       <c r="A107" s="4">
         <f t="shared" si="31"/>
         <v>0</v>
@@ -10845,7 +10848,7 @@
       <c r="CY107" s="3"/>
       <c r="CZ107" s="3"/>
     </row>
-    <row r="108" spans="1:104" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:104">
       <c r="A108" s="4">
         <f t="shared" si="31"/>
         <v>0</v>
@@ -10881,7 +10884,7 @@
       <c r="CY108" s="3"/>
       <c r="CZ108" s="3"/>
     </row>
-    <row r="109" spans="1:104" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:104">
       <c r="A109" s="4">
         <f t="shared" si="31"/>
         <v>0</v>
@@ -10917,7 +10920,7 @@
       <c r="CY109" s="3"/>
       <c r="CZ109" s="3"/>
     </row>
-    <row r="110" spans="1:104" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:104">
       <c r="A110" s="4">
         <f t="shared" si="31"/>
         <v>0</v>
@@ -10953,7 +10956,7 @@
       <c r="CY110" s="3"/>
       <c r="CZ110" s="3"/>
     </row>
-    <row r="111" spans="1:104" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:104">
       <c r="A111" s="4">
         <f t="shared" si="31"/>
         <v>0</v>
@@ -10989,7 +10992,7 @@
       <c r="CY111" s="3"/>
       <c r="CZ111" s="3"/>
     </row>
-    <row r="112" spans="1:104" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:104">
       <c r="A112" s="4">
         <f t="shared" si="31"/>
         <v>0</v>
@@ -11025,7 +11028,7 @@
       <c r="CY112" s="3"/>
       <c r="CZ112" s="3"/>
     </row>
-    <row r="113" spans="1:104" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:104">
       <c r="A113" s="4">
         <f t="shared" si="31"/>
         <v>0</v>
@@ -11061,7 +11064,7 @@
       <c r="CY113" s="3"/>
       <c r="CZ113" s="3"/>
     </row>
-    <row r="114" spans="1:104" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:104">
       <c r="A114" s="4">
         <f t="shared" si="31"/>
         <v>0</v>
@@ -11097,7 +11100,7 @@
       <c r="CY114" s="3"/>
       <c r="CZ114" s="3"/>
     </row>
-    <row r="115" spans="1:104" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:104">
       <c r="A115" s="4">
         <f t="shared" si="31"/>
         <v>0</v>
@@ -11133,7 +11136,7 @@
       <c r="CY115" s="3"/>
       <c r="CZ115" s="3"/>
     </row>
-    <row r="116" spans="1:104" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:104">
       <c r="A116" s="4">
         <f t="shared" si="31"/>
         <v>0</v>
@@ -11169,7 +11172,7 @@
       <c r="CY116" s="3"/>
       <c r="CZ116" s="3"/>
     </row>
-    <row r="117" spans="1:104" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:104">
       <c r="BW117" s="3"/>
       <c r="BX117" s="3"/>
       <c r="BY117" s="3"/>
@@ -11201,7 +11204,7 @@
       <c r="CY117" s="3"/>
       <c r="CZ117" s="3"/>
     </row>
-    <row r="118" spans="1:104" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:104">
       <c r="BW118" s="3"/>
       <c r="BX118" s="3"/>
       <c r="BY118" s="3"/>
@@ -11233,7 +11236,7 @@
       <c r="CY118" s="3"/>
       <c r="CZ118" s="3"/>
     </row>
-    <row r="119" spans="1:104" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:104">
       <c r="BW119" s="3"/>
       <c r="BX119" s="3"/>
       <c r="BY119" s="3"/>
@@ -11265,7 +11268,7 @@
       <c r="CY119" s="3"/>
       <c r="CZ119" s="3"/>
     </row>
-    <row r="120" spans="1:104" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:104">
       <c r="BW120" s="3"/>
       <c r="BX120" s="3"/>
       <c r="BY120" s="3"/>
@@ -11297,7 +11300,7 @@
       <c r="CY120" s="3"/>
       <c r="CZ120" s="3"/>
     </row>
-    <row r="121" spans="1:104" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:104">
       <c r="BW121" s="3"/>
       <c r="BX121" s="3"/>
       <c r="BY121" s="3"/>
@@ -11329,7 +11332,7 @@
       <c r="CY121" s="3"/>
       <c r="CZ121" s="3"/>
     </row>
-    <row r="122" spans="1:104" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:104">
       <c r="BW122" s="3"/>
       <c r="BX122" s="3"/>
       <c r="BY122" s="3"/>
@@ -11361,7 +11364,7 @@
       <c r="CY122" s="3"/>
       <c r="CZ122" s="3"/>
     </row>
-    <row r="123" spans="1:104" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:104">
       <c r="BW123" s="3"/>
       <c r="BX123" s="3"/>
       <c r="BY123" s="3"/>
@@ -11393,7 +11396,7 @@
       <c r="CY123" s="3"/>
       <c r="CZ123" s="3"/>
     </row>
-    <row r="124" spans="1:104" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:104">
       <c r="BW124" s="3"/>
       <c r="BX124" s="3"/>
       <c r="BY124" s="3"/>
@@ -11425,7 +11428,7 @@
       <c r="CY124" s="3"/>
       <c r="CZ124" s="3"/>
     </row>
-    <row r="125" spans="1:104" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:104">
       <c r="BW125" s="3"/>
       <c r="BX125" s="3"/>
       <c r="BY125" s="3"/>
@@ -11457,7 +11460,7 @@
       <c r="CY125" s="3"/>
       <c r="CZ125" s="3"/>
     </row>
-    <row r="126" spans="1:104" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:104">
       <c r="BW126" s="3"/>
       <c r="BX126" s="3"/>
       <c r="BY126" s="3"/>
@@ -11489,7 +11492,7 @@
       <c r="CY126" s="3"/>
       <c r="CZ126" s="3"/>
     </row>
-    <row r="127" spans="1:104" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:104">
       <c r="BW127" s="3"/>
       <c r="BX127" s="3"/>
       <c r="BY127" s="3"/>
@@ -11521,7 +11524,7 @@
       <c r="CY127" s="3"/>
       <c r="CZ127" s="3"/>
     </row>
-    <row r="128" spans="1:104" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:104">
       <c r="BW128" s="3"/>
       <c r="BX128" s="3"/>
       <c r="BY128" s="3"/>
@@ -11553,7 +11556,7 @@
       <c r="CY128" s="3"/>
       <c r="CZ128" s="3"/>
     </row>
-    <row r="129" spans="1:104" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:104">
       <c r="A129"/>
       <c r="BW129" s="3"/>
       <c r="BX129" s="3"/>
@@ -11586,7 +11589,7 @@
       <c r="CY129" s="3"/>
       <c r="CZ129" s="3"/>
     </row>
-    <row r="130" spans="1:104" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:104">
       <c r="A130"/>
       <c r="BW130" s="3"/>
       <c r="BX130" s="3"/>
@@ -11619,7 +11622,7 @@
       <c r="CY130" s="3"/>
       <c r="CZ130" s="3"/>
     </row>
-    <row r="131" spans="1:104" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:104">
       <c r="A131"/>
       <c r="BW131" s="3"/>
       <c r="BX131" s="3"/>
@@ -11652,7 +11655,7 @@
       <c r="CY131" s="3"/>
       <c r="CZ131" s="3"/>
     </row>
-    <row r="132" spans="1:104" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:104">
       <c r="A132"/>
       <c r="BW132" s="3"/>
       <c r="BX132" s="3"/>
@@ -11685,7 +11688,7 @@
       <c r="CY132" s="3"/>
       <c r="CZ132" s="3"/>
     </row>
-    <row r="133" spans="1:104" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:104">
       <c r="A133"/>
       <c r="BW133" s="3"/>
       <c r="BX133" s="3"/>
@@ -11718,7 +11721,7 @@
       <c r="CY133" s="3"/>
       <c r="CZ133" s="3"/>
     </row>
-    <row r="134" spans="1:104" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:104">
       <c r="A134"/>
       <c r="BW134" s="3"/>
       <c r="BX134" s="3"/>
@@ -11751,7 +11754,7 @@
       <c r="CY134" s="3"/>
       <c r="CZ134" s="3"/>
     </row>
-    <row r="135" spans="1:104" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:104">
       <c r="A135"/>
       <c r="BW135" s="3"/>
       <c r="BX135" s="3"/>
@@ -11784,7 +11787,7 @@
       <c r="CY135" s="3"/>
       <c r="CZ135" s="3"/>
     </row>
-    <row r="136" spans="1:104" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:104">
       <c r="A136"/>
       <c r="BW136" s="3"/>
       <c r="BX136" s="3"/>
@@ -11817,7 +11820,7 @@
       <c r="CY136" s="3"/>
       <c r="CZ136" s="3"/>
     </row>
-    <row r="137" spans="1:104" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:104">
       <c r="A137"/>
       <c r="BW137" s="3"/>
       <c r="BX137" s="3"/>
@@ -11850,7 +11853,7 @@
       <c r="CY137" s="3"/>
       <c r="CZ137" s="3"/>
     </row>
-    <row r="138" spans="1:104" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:104">
       <c r="A138"/>
       <c r="BW138" s="3"/>
       <c r="BX138" s="3"/>
@@ -11883,7 +11886,7 @@
       <c r="CY138" s="3"/>
       <c r="CZ138" s="3"/>
     </row>
-    <row r="139" spans="1:104" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:104">
       <c r="A139"/>
       <c r="BW139" s="3"/>
       <c r="BX139" s="3"/>
@@ -11916,7 +11919,7 @@
       <c r="CY139" s="3"/>
       <c r="CZ139" s="3"/>
     </row>
-    <row r="140" spans="1:104" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:104">
       <c r="A140"/>
       <c r="BW140" s="3"/>
       <c r="BX140" s="3"/>
@@ -11949,7 +11952,7 @@
       <c r="CY140" s="3"/>
       <c r="CZ140" s="3"/>
     </row>
-    <row r="141" spans="1:104" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:104">
       <c r="A141"/>
       <c r="BW141" s="3"/>
       <c r="BX141" s="3"/>
@@ -11982,7 +11985,7 @@
       <c r="CY141" s="3"/>
       <c r="CZ141" s="3"/>
     </row>
-    <row r="142" spans="1:104" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:104">
       <c r="A142"/>
       <c r="BW142" s="3"/>
       <c r="BX142" s="3"/>
@@ -12015,7 +12018,7 @@
       <c r="CY142" s="3"/>
       <c r="CZ142" s="3"/>
     </row>
-    <row r="143" spans="1:104" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:104">
       <c r="A143"/>
       <c r="BW143" s="3"/>
       <c r="BX143" s="3"/>
@@ -12048,7 +12051,7 @@
       <c r="CY143" s="3"/>
       <c r="CZ143" s="3"/>
     </row>
-    <row r="144" spans="1:104" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:104">
       <c r="A144"/>
       <c r="BW144" s="3"/>
       <c r="BX144" s="3"/>
@@ -12081,7 +12084,7 @@
       <c r="CY144" s="3"/>
       <c r="CZ144" s="3"/>
     </row>
-    <row r="145" spans="1:104" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:104">
       <c r="A145"/>
       <c r="BW145" s="3"/>
       <c r="BX145" s="3"/>
@@ -12114,7 +12117,7 @@
       <c r="CY145" s="3"/>
       <c r="CZ145" s="3"/>
     </row>
-    <row r="146" spans="1:104" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:104">
       <c r="A146"/>
       <c r="BW146" s="3"/>
       <c r="BX146" s="3"/>
@@ -12147,7 +12150,7 @@
       <c r="CY146" s="3"/>
       <c r="CZ146" s="3"/>
     </row>
-    <row r="147" spans="1:104" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:104">
       <c r="A147"/>
       <c r="BW147" s="3"/>
       <c r="BX147" s="3"/>
@@ -12180,7 +12183,7 @@
       <c r="CY147" s="3"/>
       <c r="CZ147" s="3"/>
     </row>
-    <row r="148" spans="1:104" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:104">
       <c r="A148"/>
       <c r="BW148" s="3"/>
       <c r="BX148" s="3"/>
@@ -12213,7 +12216,7 @@
       <c r="CY148" s="3"/>
       <c r="CZ148" s="3"/>
     </row>
-    <row r="149" spans="1:104" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:104">
       <c r="A149"/>
       <c r="BW149" s="3"/>
       <c r="BX149" s="3"/>
@@ -12246,7 +12249,7 @@
       <c r="CY149" s="3"/>
       <c r="CZ149" s="3"/>
     </row>
-    <row r="150" spans="1:104" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:104">
       <c r="A150"/>
       <c r="BW150" s="3"/>
       <c r="BX150" s="3"/>
@@ -12279,7 +12282,7 @@
       <c r="CY150" s="3"/>
       <c r="CZ150" s="3"/>
     </row>
-    <row r="151" spans="1:104" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:104">
       <c r="A151"/>
       <c r="BW151" s="3"/>
       <c r="BX151" s="3"/>
@@ -12312,7 +12315,7 @@
       <c r="CY151" s="3"/>
       <c r="CZ151" s="3"/>
     </row>
-    <row r="152" spans="1:104" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:104">
       <c r="A152"/>
       <c r="BW152" s="3"/>
       <c r="BX152" s="3"/>
@@ -12345,7 +12348,7 @@
       <c r="CY152" s="3"/>
       <c r="CZ152" s="3"/>
     </row>
-    <row r="153" spans="1:104" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:104">
       <c r="A153"/>
       <c r="BW153" s="3"/>
       <c r="BX153" s="3"/>
@@ -12378,7 +12381,7 @@
       <c r="CY153" s="3"/>
       <c r="CZ153" s="3"/>
     </row>
-    <row r="154" spans="1:104" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:104">
       <c r="A154"/>
       <c r="BW154" s="3"/>
       <c r="BX154" s="3"/>
@@ -12411,7 +12414,7 @@
       <c r="CY154" s="3"/>
       <c r="CZ154" s="3"/>
     </row>
-    <row r="155" spans="1:104" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:104">
       <c r="A155"/>
       <c r="BW155" s="3"/>
       <c r="BX155" s="3"/>
@@ -12444,7 +12447,7 @@
       <c r="CY155" s="3"/>
       <c r="CZ155" s="3"/>
     </row>
-    <row r="156" spans="1:104" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:104">
       <c r="A156"/>
       <c r="BW156" s="3"/>
       <c r="BX156" s="3"/>
@@ -12477,7 +12480,7 @@
       <c r="CY156" s="3"/>
       <c r="CZ156" s="3"/>
     </row>
-    <row r="157" spans="1:104" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:104">
       <c r="A157"/>
       <c r="BW157" s="3"/>
       <c r="BX157" s="3"/>
@@ -12510,7 +12513,7 @@
       <c r="CY157" s="3"/>
       <c r="CZ157" s="3"/>
     </row>
-    <row r="158" spans="1:104" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:104">
       <c r="A158"/>
       <c r="BW158" s="3"/>
       <c r="BX158" s="3"/>
@@ -12543,7 +12546,7 @@
       <c r="CY158" s="3"/>
       <c r="CZ158" s="3"/>
     </row>
-    <row r="159" spans="1:104" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:104">
       <c r="A159"/>
       <c r="BW159" s="3"/>
       <c r="BX159" s="3"/>
@@ -12576,7 +12579,7 @@
       <c r="CY159" s="3"/>
       <c r="CZ159" s="3"/>
     </row>
-    <row r="160" spans="1:104" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:104">
       <c r="A160"/>
       <c r="BW160" s="3"/>
       <c r="BX160" s="3"/>
@@ -12612,6 +12615,11 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -12623,419 +12631,419 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="5.25" style="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.1640625" style="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.5" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="91" width="5.625" style="10" customWidth="1"/>
-    <col min="92" max="134" width="3.625" style="10" customWidth="1"/>
+    <col min="3" max="91" width="5.6640625" style="10" customWidth="1"/>
+    <col min="92" max="134" width="3.6640625" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:134" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:134">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="E1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="F1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="G1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="H1" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="I1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="J1" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="K1" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="L1" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="M1" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="N1" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="N1" s="12" t="s">
+      <c r="O1" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="P1" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q1" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="R1" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="S1" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="T1" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="U1" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="V1" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="W1" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="O1" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="P1" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q1" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="R1" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="S1" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="T1" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="U1" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="V1" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="W1" s="12" t="s">
+      <c r="X1" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="X1" s="12" t="s">
+      <c r="Y1" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="Y1" s="12" t="s">
+      <c r="Z1" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="Z1" s="12" t="s">
+      <c r="AA1" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="AA1" s="12" t="s">
+      <c r="AB1" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="AB1" s="12" t="s">
+      <c r="AC1" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="AC1" s="12" t="s">
+      <c r="AD1" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="AD1" s="12" t="s">
+      <c r="AE1" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="AE1" s="12" t="s">
+      <c r="AF1" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="AF1" s="12" t="s">
+      <c r="AG1" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="AG1" s="12" t="s">
-        <v>27</v>
-      </c>
       <c r="AH1" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="AI1" s="12" t="s">
+      <c r="AJ1" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="AJ1" s="12" t="s">
+      <c r="AK1" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="AK1" s="12" t="s">
+      <c r="AL1" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="AL1" s="12" t="s">
+      <c r="AM1" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="AM1" s="12" t="s">
+      <c r="AN1" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="AN1" s="12" t="s">
+      <c r="AO1" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="AO1" s="12" t="s">
+      <c r="AP1" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="AP1" s="12" t="s">
+      <c r="AQ1" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="AQ1" s="12" t="s">
+      <c r="AR1" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="AR1" s="12" t="s">
+      <c r="AS1" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="AS1" s="12" t="s">
+      <c r="AT1" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="AT1" s="12" t="s">
+      <c r="AU1" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="AU1" s="12" t="s">
+      <c r="AV1" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="AV1" s="12" t="s">
+      <c r="AW1" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="AW1" s="12" t="s">
+      <c r="AX1" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="AX1" s="12" t="s">
+      <c r="AY1" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="AY1" s="12" t="s">
+      <c r="AZ1" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="AZ1" s="12" t="s">
+      <c r="BA1" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="BA1" s="12" t="s">
+      <c r="BB1" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="BB1" s="12" t="s">
-        <v>54</v>
-      </c>
       <c r="BC1" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="BD1" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="BD1" s="12" t="s">
+      <c r="BE1" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="BE1" s="12" t="s">
+      <c r="BF1" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="BF1" s="12" t="s">
+      <c r="BG1" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="BG1" s="12" t="s">
+      <c r="BH1" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="BH1" s="12" t="s">
+      <c r="BI1" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="BI1" s="12" t="s">
+      <c r="BJ1" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="BJ1" s="12" t="s">
+      <c r="BK1" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="BL1" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="BM1" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="BN1" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="BO1" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="BP1" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="BQ1" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="BR1" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="BS1" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="BT1" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="BU1" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="BV1" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="BW1" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="BX1" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="BY1" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="BZ1" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="CA1" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="CB1" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="CC1" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="CD1" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="CE1" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="CF1" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="CG1" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="CH1" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="CI1" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="CJ1" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="CK1" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="CL1" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="CM1" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="CN1" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="BK1" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="BL1" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="BM1" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="BN1" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="BO1" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="BP1" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="BQ1" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="BR1" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="BS1" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="BT1" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="BU1" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="BV1" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="BW1" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="BX1" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="BY1" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="BZ1" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="CA1" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="CB1" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="CC1" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="CD1" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="CE1" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="CF1" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="CG1" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="CH1" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="CI1" s="12" t="s">
-        <v>174</v>
-      </c>
-      <c r="CJ1" s="12" t="s">
-        <v>175</v>
-      </c>
-      <c r="CK1" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="CL1" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="CM1" s="12" t="s">
+      <c r="CO1" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="CP1" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="CQ1" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="CR1" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="CS1" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="CT1" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="CU1" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="CV1" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="CW1" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="CX1" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="CY1" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="CZ1" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="DA1" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="DB1" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="DC1" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="DD1" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="DE1" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="DF1" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="DG1" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="DH1" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="DI1" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="DJ1" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="DK1" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="DL1" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="DM1" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="DN1" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="DO1" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="DP1" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="DQ1" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="DR1" s="12" t="s">
         <v>178</v>
       </c>
-      <c r="CN1" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="CO1" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="CP1" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="CQ1" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="CR1" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="CS1" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="CT1" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="CU1" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="CV1" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="CW1" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="CX1" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="CY1" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="CZ1" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="DA1" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="DB1" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="DC1" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="DD1" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="DE1" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="DF1" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="DG1" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="DH1" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="DI1" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="DJ1" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="DK1" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="DL1" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="DM1" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="DN1" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="DO1" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="DP1" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="DQ1" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="DR1" s="12" t="s">
+      <c r="DS1" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="DS1" s="12" t="s">
+      <c r="DT1" s="12" t="s">
         <v>180</v>
       </c>
-      <c r="DT1" s="12" t="s">
+      <c r="DU1" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="DU1" s="12" t="s">
+      <c r="DV1" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="DV1" s="12" t="s">
+      <c r="DW1" s="12" t="s">
         <v>183</v>
       </c>
-      <c r="DW1" s="12" t="s">
+      <c r="DX1" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="DX1" s="12" t="s">
+      <c r="DY1" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="DY1" s="12" t="s">
+      <c r="DZ1" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="DZ1" s="12" t="s">
+      <c r="EA1" s="12" t="s">
         <v>187</v>
       </c>
-      <c r="EA1" s="12" t="s">
+      <c r="EB1" s="12" t="s">
         <v>188</v>
       </c>
-      <c r="EB1" s="12" t="s">
+      <c r="EC1" s="12" t="s">
         <v>189</v>
       </c>
-      <c r="EC1" s="12" t="s">
+      <c r="ED1" s="12" t="s">
         <v>190</v>
       </c>
-      <c r="ED1" s="12" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="2" spans="1:134" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:134">
       <c r="A2" s="12" t="s">
         <v>2</v>
       </c>
@@ -13310,7 +13318,7 @@
         <v>2</v>
       </c>
       <c r="CN2" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="CO2" s="6"/>
       <c r="CP2" s="6"/>
@@ -13355,12 +13363,12 @@
       <c r="EC2" s="6"/>
       <c r="ED2" s="6"/>
     </row>
-    <row r="3" spans="1:134" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:134">
       <c r="A3" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" s="12">
         <v>1</v>
@@ -13630,7 +13638,7 @@
         <v>2</v>
       </c>
       <c r="CN3" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="CO3" s="9"/>
       <c r="CP3" s="6"/>
@@ -13675,13 +13683,13 @@
       <c r="EC3" s="6"/>
       <c r="ED3" s="6"/>
     </row>
-    <row r="4" spans="1:134" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:134">
       <c r="A4" s="12">
         <f>SUM(CN4:ED4)</f>
         <v>43</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>2</v>
@@ -14123,7 +14131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:134" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:134">
       <c r="A5" s="12">
         <f>SUM(CN5:ED5)</f>
         <v>0</v>
@@ -14302,7 +14310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:134" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:134">
       <c r="A6" s="12">
         <f t="shared" ref="A6:A69" si="29">SUM(CN6:ED6)</f>
         <v>0</v>
@@ -14480,7 +14488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:134" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:134">
       <c r="A7" s="12">
         <f t="shared" si="29"/>
         <v>0</v>
@@ -14658,7 +14666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:134" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:134">
       <c r="A8" s="12">
         <f t="shared" si="29"/>
         <v>0</v>
@@ -14836,7 +14844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:134" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:134">
       <c r="A9" s="12">
         <f t="shared" si="29"/>
         <v>0</v>
@@ -15014,7 +15022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:134" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:134">
       <c r="A10" s="12">
         <f t="shared" si="29"/>
         <v>0</v>
@@ -15192,7 +15200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:134" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:134">
       <c r="A11" s="12">
         <f t="shared" si="29"/>
         <v>0</v>
@@ -15370,7 +15378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:134" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:134">
       <c r="A12" s="12">
         <f t="shared" si="29"/>
         <v>0</v>
@@ -15548,7 +15556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:134" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:134">
       <c r="A13" s="12">
         <f t="shared" si="29"/>
         <v>0</v>
@@ -15726,7 +15734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:134" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:134">
       <c r="A14" s="12">
         <f t="shared" si="29"/>
         <v>0</v>
@@ -15904,7 +15912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:134" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:134">
       <c r="A15" s="12">
         <f t="shared" si="29"/>
         <v>0</v>
@@ -16082,7 +16090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:134" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:134">
       <c r="A16" s="12">
         <f t="shared" si="29"/>
         <v>0</v>
@@ -16260,7 +16268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:134" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:134">
       <c r="A17" s="12">
         <f t="shared" si="29"/>
         <v>0</v>
@@ -16438,7 +16446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:134" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:134">
       <c r="A18" s="12">
         <f t="shared" si="29"/>
         <v>0</v>
@@ -16616,7 +16624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:134" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:134">
       <c r="A19" s="12">
         <f t="shared" si="29"/>
         <v>0</v>
@@ -16794,7 +16802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:134" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:134">
       <c r="A20" s="12">
         <f t="shared" si="29"/>
         <v>0</v>
@@ -16972,7 +16980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:134" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:134">
       <c r="A21" s="12">
         <f t="shared" si="29"/>
         <v>0</v>
@@ -17150,7 +17158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:134" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:134">
       <c r="A22" s="12">
         <f t="shared" si="29"/>
         <v>0</v>
@@ -17328,7 +17336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:134" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:134">
       <c r="A23" s="12">
         <f t="shared" si="29"/>
         <v>0</v>
@@ -17506,7 +17514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:134" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:134">
       <c r="A24" s="12">
         <f t="shared" si="29"/>
         <v>0</v>
@@ -17684,7 +17692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:134" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:134">
       <c r="A25" s="12">
         <f t="shared" si="29"/>
         <v>0</v>
@@ -17862,7 +17870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:134" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:134">
       <c r="A26" s="12">
         <f t="shared" si="29"/>
         <v>0</v>
@@ -18040,7 +18048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:134" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:134">
       <c r="A27" s="12">
         <f t="shared" si="29"/>
         <v>0</v>
@@ -18218,7 +18226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:134" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:134">
       <c r="A28" s="12">
         <f t="shared" si="29"/>
         <v>0</v>
@@ -18396,7 +18404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:134" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:134">
       <c r="A29" s="12">
         <f t="shared" si="29"/>
         <v>0</v>
@@ -18574,7 +18582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:134" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:134">
       <c r="A30" s="12">
         <f t="shared" si="29"/>
         <v>0</v>
@@ -18752,7 +18760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:134" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:134">
       <c r="A31" s="12">
         <f t="shared" si="29"/>
         <v>0</v>
@@ -18930,7 +18938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:134" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:134">
       <c r="A32" s="12">
         <f t="shared" si="29"/>
         <v>0</v>
@@ -19108,7 +19116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:134" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:134">
       <c r="A33" s="12">
         <f t="shared" si="29"/>
         <v>0</v>
@@ -19286,7 +19294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:134" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:134">
       <c r="A34" s="12">
         <f t="shared" si="29"/>
         <v>0</v>
@@ -19464,7 +19472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:134" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:134">
       <c r="A35" s="12">
         <f t="shared" si="29"/>
         <v>0</v>
@@ -19642,7 +19650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:134" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:134">
       <c r="A36" s="12">
         <f t="shared" si="29"/>
         <v>0</v>
@@ -19820,7 +19828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:134" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:134">
       <c r="A37" s="12">
         <f t="shared" si="29"/>
         <v>0</v>
@@ -19998,7 +20006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:134" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:134">
       <c r="A38" s="12">
         <f t="shared" si="29"/>
         <v>0</v>
@@ -20176,7 +20184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:134" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:134">
       <c r="A39" s="12">
         <f t="shared" si="29"/>
         <v>0</v>
@@ -20354,7 +20362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:134" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:134">
       <c r="A40" s="12">
         <f t="shared" si="29"/>
         <v>0</v>
@@ -20532,7 +20540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:134" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:134">
       <c r="A41" s="12">
         <f t="shared" si="29"/>
         <v>0</v>
@@ -20710,7 +20718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:134" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:134">
       <c r="A42" s="12">
         <f t="shared" si="29"/>
         <v>0</v>
@@ -20888,7 +20896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:134" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:134">
       <c r="A43" s="12">
         <f t="shared" si="29"/>
         <v>0</v>
@@ -21066,7 +21074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:134" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:134">
       <c r="A44" s="12">
         <f t="shared" si="29"/>
         <v>0</v>
@@ -21244,7 +21252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:134" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:134">
       <c r="A45" s="12">
         <f t="shared" si="29"/>
         <v>0</v>
@@ -21422,7 +21430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:134" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:134">
       <c r="A46" s="12">
         <f t="shared" si="29"/>
         <v>0</v>
@@ -21600,7 +21608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:134" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:134">
       <c r="A47" s="12">
         <f t="shared" si="29"/>
         <v>0</v>
@@ -21778,7 +21786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:134" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:134">
       <c r="A48" s="12">
         <f t="shared" si="29"/>
         <v>0</v>
@@ -21956,7 +21964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:134" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:134">
       <c r="A49" s="12">
         <f t="shared" si="29"/>
         <v>0</v>
@@ -22134,7 +22142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:134" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:134">
       <c r="A50" s="12">
         <f t="shared" si="29"/>
         <v>0</v>
@@ -22312,7 +22320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:134" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:134">
       <c r="A51" s="12">
         <f t="shared" si="29"/>
         <v>0</v>
@@ -22490,7 +22498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:134" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:134">
       <c r="A52" s="12">
         <f t="shared" si="29"/>
         <v>0</v>
@@ -22668,7 +22676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:134" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:134">
       <c r="A53" s="12">
         <f t="shared" si="29"/>
         <v>0</v>
@@ -22846,7 +22854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:134" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:134">
       <c r="A54" s="12">
         <f t="shared" si="29"/>
         <v>0</v>
@@ -23024,7 +23032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:134" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:134">
       <c r="A55" s="12">
         <f t="shared" si="29"/>
         <v>0</v>
@@ -23202,7 +23210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:134" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:134">
       <c r="A56" s="12">
         <f t="shared" si="29"/>
         <v>0</v>
@@ -23380,7 +23388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:134" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:134">
       <c r="A57" s="12">
         <f t="shared" si="29"/>
         <v>0</v>
@@ -23558,7 +23566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:134" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:134">
       <c r="A58" s="12">
         <f t="shared" si="29"/>
         <v>0</v>
@@ -23736,7 +23744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:134" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:134">
       <c r="A59" s="12">
         <f t="shared" si="29"/>
         <v>0</v>
@@ -23914,7 +23922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:134" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:134">
       <c r="A60" s="12">
         <f t="shared" si="29"/>
         <v>0</v>
@@ -24092,7 +24100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:134" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:134">
       <c r="A61" s="12">
         <f t="shared" si="29"/>
         <v>0</v>
@@ -24270,7 +24278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:134" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:134">
       <c r="A62" s="12">
         <f t="shared" si="29"/>
         <v>0</v>
@@ -24448,7 +24456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:134" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:134">
       <c r="A63" s="12">
         <f t="shared" si="29"/>
         <v>0</v>
@@ -24626,7 +24634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:134" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:134">
       <c r="A64" s="12">
         <f t="shared" si="29"/>
         <v>0</v>
@@ -24804,7 +24812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:134" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:134">
       <c r="A65" s="12">
         <f t="shared" si="29"/>
         <v>0</v>
@@ -24982,7 +24990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:134" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:134">
       <c r="A66" s="12">
         <f t="shared" si="29"/>
         <v>0</v>
@@ -25160,7 +25168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:134" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:134">
       <c r="A67" s="12">
         <f t="shared" si="29"/>
         <v>0</v>
@@ -25338,7 +25346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:134" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:134">
       <c r="A68" s="12">
         <f t="shared" si="29"/>
         <v>0</v>
@@ -25516,7 +25524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:134" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:134">
       <c r="A69" s="12">
         <f t="shared" si="29"/>
         <v>0</v>
@@ -25694,7 +25702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:134" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:134">
       <c r="A70" s="12">
         <f t="shared" ref="A70:A91" si="65">SUM(CN70:ED70)</f>
         <v>0</v>
@@ -25872,7 +25880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:134" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:134">
       <c r="A71" s="12">
         <f t="shared" si="65"/>
         <v>0</v>
@@ -26050,7 +26058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:134" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:134">
       <c r="A72" s="12">
         <f t="shared" si="65"/>
         <v>0</v>
@@ -26228,7 +26236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:134" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:134">
       <c r="A73" s="12">
         <f t="shared" si="65"/>
         <v>0</v>
@@ -26406,7 +26414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:134" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:134">
       <c r="A74" s="12">
         <f t="shared" si="65"/>
         <v>0</v>
@@ -26584,7 +26592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:134" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:134">
       <c r="A75" s="12">
         <f t="shared" si="65"/>
         <v>0</v>
@@ -26762,7 +26770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:134" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:134">
       <c r="A76" s="12">
         <f t="shared" si="65"/>
         <v>0</v>
@@ -26940,7 +26948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:134" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:134">
       <c r="A77" s="12">
         <f t="shared" si="65"/>
         <v>0</v>
@@ -27118,7 +27126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:134" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:134">
       <c r="A78" s="12">
         <f t="shared" si="65"/>
         <v>0</v>
@@ -27296,7 +27304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:134" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:134">
       <c r="A79" s="12">
         <f t="shared" si="65"/>
         <v>0</v>
@@ -27474,7 +27482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:134" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:134">
       <c r="A80" s="12">
         <f t="shared" si="65"/>
         <v>0</v>
@@ -27652,7 +27660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:134" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:134">
       <c r="A81" s="12">
         <f t="shared" si="65"/>
         <v>0</v>
@@ -27830,7 +27838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:134" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:134">
       <c r="A82" s="12">
         <f t="shared" si="65"/>
         <v>0</v>
@@ -28008,7 +28016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:134" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:134">
       <c r="A83" s="12">
         <f t="shared" si="65"/>
         <v>0</v>
@@ -28186,7 +28194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:134" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:134">
       <c r="A84" s="12">
         <f t="shared" si="65"/>
         <v>0</v>
@@ -28364,7 +28372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:134" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:134">
       <c r="A85" s="12">
         <f t="shared" si="65"/>
         <v>0</v>
@@ -28542,7 +28550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:134" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:134">
       <c r="A86" s="12">
         <f t="shared" si="65"/>
         <v>0</v>
@@ -28720,7 +28728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:134" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:134">
       <c r="A87" s="12">
         <f t="shared" si="65"/>
         <v>0</v>
@@ -28898,7 +28906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:134" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:134">
       <c r="A88" s="12">
         <f t="shared" si="65"/>
         <v>0</v>
@@ -29076,7 +29084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:134" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:134">
       <c r="A89" s="12">
         <f t="shared" si="65"/>
         <v>0</v>
@@ -29254,13 +29262,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:134" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:134">
       <c r="A90" s="12">
         <f t="shared" si="65"/>
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:134" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:134">
       <c r="A91" s="12">
         <f t="shared" si="65"/>
         <v>0</v>
@@ -29269,6 +29277,11 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>